--- a/Results/Stackoverflow/Agent_Results.xlsx
+++ b/Results/Stackoverflow/Agent_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiank\Desktop\课题组\发论文\agent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiank\Desktop\课题组\发论文\MLLM4ArchDiagram\Results\Stackoverflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7A7381-7D78-4372-AC96-312DC9F19E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701FFE14-EB45-44E9-99BF-9F9E89474DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1418" windowWidth="14018" windowHeight="10237" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,162 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="158">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77773733</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77875225</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78610852</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77816547</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77887833</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78538614</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78654594</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77836245</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78203877</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78205255</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78283358</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78291029</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78408109</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78409121</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78650612</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78666526</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78686322</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78987040</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/79087941</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77831615</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77838510</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77849742</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77875181</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77935907</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77992496</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78024207</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78143071</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78154473</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78158097</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78167422</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78221567</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78331986</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78384990</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78403928</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78407179</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78461828</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78471246</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78481065</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78547490</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78553007</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78604275</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78681032</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78956813</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78971813</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/79032547</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/79086917</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/79121646</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/78949028</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/79154589</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/77790875</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="109">
   <si>
     <t>H</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3073,340 +2918,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-# Comprehensive Guide: Preventing Recursive Loops in AWS Lambda SQS Message Processing
-## Key Insights on Recursive Loop Detection
-### AWS Lambda Recursive Loop Prevention Mechanics
-1. **Automatic Loop Detection**
-- AWS Lambda automatically detects recursive loops after 16 invocations
-- Returns a `RecursiveInvocationException` to the event source
-- No additional charges for this protection mechanism
-- Works with supported AWS SDK versions
-2. **Trace Header Mechanism**
-- Uses X-Amzn-Trace-Id header with specific format
-- Example header structure:
-  ```
-  Root=&lt;trace-id&gt;;
-  Parent=&lt;parent-id&gt;;
-  Sampled=1;
-  Lineage=&lt;resource-hash&gt;:&lt;invocation-count&gt;
-  ```
-- `&lt;resource-hash&gt;`: Hash of Lambda function
-- `&lt;invocation-count&gt;`: Number of times function invoked with same event
-### Why Custom Trace Headers Might Not Prevent Recursion
-When you generate your own AWS Trace Header using `crypto.randomUUID()`, you're likely missing critical components that AWS uses for recursive loop detection:
-1. **Missing Lineage Information**
-- AWS requires a specific lineage tracking mechanism
-- Simply generating a random UUID doesn't replicate AWS's internal tracing logic
-2. **Lack of Standardized Trace Context**
-- Custom headers lack the comprehensive context AWS expects
-- Missing parent invocation details and resource-specific hashing
-## Recommended Architectural Strategies
-### 1. Enhanced Message Deduplication
-```javascript
-function generateEnhancedMessageId() {
-  return crypto.createHash('sha256')
-    .update(`${Date.now()}-${process.env.AWS_LAMBDA_FUNCTION_NAME}`)
-    .digest('hex');
-}
-```
-### 2. Explicit Loop Prevention Mechanism
-```javascript
-async function processMessage(event) {
-  const messageId = generateEnhancedMessageId();
-  // Check if message already processed
-  if (await isMessageAlreadyProcessed(messageId)) {
-    console.log('Duplicate message detected, skipping');
-    return;
-  }
-  try {
-    // Process message with idempotency
-    await processMessageLogic(event);
-    // Mark message as processed
-    await markMessageProcessed(messageId);
-  } catch (error) {
-    // Implement error handling and potential retry logic
-    await handleProcessingError(error);
-  }
-}
-```
-### 3. Queue and Lambda Configuration
-1. **SQS Queue Configuration**
-- Use FIFO queues with content-based deduplication
-- Set appropriate `maxReceiveCount`
-- Configure Dead Letter Queue (DLQ)
-2. **Lambda Function Settings**
-- Enable active tracing
-- Configure reserved concurrency
-- Implement comprehensive error handling
-## Monitoring and Observability
-### Key Metrics to Track
-- `RecursiveInvocationsDropped`
-- Message processing latency
-- Error rates
-- Deduplication effectiveness
-### Recommended Tools
-- AWS CloudWatch
-- AWS X-Ray
-- Custom logging mechanisms
-## Alternative Architectural Patterns
-1. **Competing Consumers Pattern**
-- Distribute message processing across multiple consumers
-- Implement horizontal scaling
-- Use distributed locking mechanisms
-2. **Event-Driven Choreography**
-- Leverage AWS Step Functions
-- Manage complex message processing workflows
-- Provide explicit flow control
-## Conclusion: Multi-Layered Approach
-Preventing recursive loops requires a comprehensive strategy:
-- Enhanced message deduplication
-- Robust error handling
-- Careful AWS service configuration
-- Idempotent message processing
-### Recommended Next Steps
-1. Implement proposed deduplication strategies
-2. Configure appropriate queue and Lambda settings
-3. Add comprehensive logging and monitoring
-4. Conduct thorough testing
-5. Gradually roll out changes
-By adopting these strategies, you'll create a more resilient, predictable AWS Lambda SQS message processing architecture that effectively prevents unintended recursive invocations.
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-## Preventing False Recursive Loop Detection in AWS Lambda with SQS
-### Introduction
-You're encountering a situation where AWS Lambda's recursive loop detection falsely identifies your message processing flow as a recursive loop, leading to throttling, despite your efforts to generate unique AWS Trace Headers. This document outlines a solution to prevent these false positives and ensure your Lambda function operates as intended. We'll analyze the architecture, propose improvements, and justify our recommendations, referencing elements from the provided architecture diagrams.
-### Problem Analysis
-As depicted in *Image 1*, your architecture involves a Lambda function triggered by messages from an SQS queue. This Lambda processes messages, adds timestamps, and re-enqueues them to the same SQS queue unless a 2-minute threshold is met (as shown in the timestamp check logic in *Image 2*). The core problem is that AWS's built-in recursive loop detection misinterprets this message re-enqueueing as a recursive loop, even when you generate custom `X-Amzn-Trace-Id` headers.
-The AWS blog post on detecting recursive loops confirms that this mechanism exists and relies on trace headers to identify loops. The fact that your custom headers aren't preventing the false positives suggests a limitation in the AWS detection logic's ability to recognize these custom headers or perhaps another factor triggering the detection.
-### Proposed Solution: Implement a Delay Queue
-The most effective solution to prevent false recursive loop detection is to introduce an SQS delay queue into your architecture.
-#### Implementation
-1.  **Create a new SQS Delay Queue:** Configure an SQS queue with a delay setting slightly less than your desired processing interval (e.g., 1 minute 50 seconds for a 2-minute total delay).
-2.  **Modify Lambda Function:**
-    *   Instead of directly re-enqueuing messages to the original queue, send them to the newly created delay queue.
-    *   The delay queue will then automatically release the messages back to the original queue after the configured delay.
-#### Code Example (Python):
-```python
-import boto3
-import time
-import os
-sqs = boto3.client('sqs')
-ORIGINAL_QUEUE_URL = os.environ['ORIGINAL_QUEUE_URL'] # Your original SQS queue URL
-DELAY_QUEUE_URL = os.environ['DELAY_QUEUE_URL'] # The new delay queue URL
-def lambda_handler(event, context):
-    for record in event['Records']:
-        message = record['body']
-        # Process the message
-        print(f"Processing message: {message}")
-        processed_message = f"{message} - Processed at: {time.time()}"
-        # Check timestamp (Existing logic - keep this)
-        # ... your timestamp check logic here ...
-        # Send to delay queue instead of original queue
-        response = sqs.send_message(
-            QueueUrl=DELAY_QUEUE_URL,
-            MessageBody=processed_message
-        )
-        print(f"Message sent to delay queue: {response['MessageId']}")
-    return {
-        'statusCode': 200,
-        'body': 'Messages processed and sent to delay queue'
-    }
-```
-#### Architectural Changes
-This change modifies the flow depicted in *Image 1* by inserting the delay queue between the Lambda function and the original SQS queue. The Lambda now sends messages to the delay queue, and the delay queue delivers them back to the original queue after the specified delay.
-### Rationale and Trade-offs
-*   **Prevention of False Positives:** The delay queue breaks the immediate message loop, preventing AWS from misinterpreting the flow as a recursive invocation. The delay queue inherently introduces a pause in processing from the perspective of the original queue.
-*   **Minimal Code Changes:** The code changes are relatively small, primarily involving changing the target queue for the `send_message` call.
-*   **Built-in AWS Feature:** SQS delay queues are a native AWS feature, ensuring reliability and scalability.
-*   **Trade-off:** Introduces a delay equal to the delay queue's configuration. However, this delay is intentional and aligned with your existing 2-minute threshold logic.
-### Alternative Approaches and Considerations
-While the delay queue is the recommended solution, here are a few other options to consider:
-*   **SQS Message Attributes:** Store metadata, including the timestamp, in SQS message attributes instead of the message body. While unlikely to solve the recursion detection issue directly, it may help AWS differentiate the re-enqueued messages.
-    ```python
-    response = sqs.send_message(
-        QueueUrl=DELAY_QUEUE_URL,
-        MessageBody=processed_message,
-        MessageAttributes={
-            'Timestamp': {
-                'DataType': 'String',
-                'StringValue': str(time.time())
-            }
-        }
-    )
-    ```
-*   **Dead Letter Queue (DLQ) for Long Delays:** If messages exceed the 2-minute threshold, send them to a DLQ. A separate process (e.g., another Lambda function triggered by CloudWatch Events) can then handle these messages. This completely eliminates the loop for messages needing longer delays but adds complexity.
-*   **AWS Config Rules:** Although not a direct solution, creating AWS Config rules to monitor the Lambda function and SQS queue could provide insights into why the recursion detection is triggered.
-### Conclusion
-By implementing an SQS delay queue, you can effectively prevent false recursive loop detection in your AWS Lambda function. This approach offers a balance of simplicity, reliability, and minimal code changes. The delay queue changes the message flow, preventing the AWS recursion detection logic from misinterpreting the intended behavior, and will allow the Lambda function to operate without unwanted throttling. While other approaches exist, the delay queue offers the most direct and reliable solution to the specific problem outlined in your architecture.
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-```
-Micronaut Google Cloud Functions Local Debugging
-The user's core problem is the difficulty in locally running and debugging Micronaut-based Google Cloud Functions triggered by Pub/Sub (Background Function) and Cloud Storage events (Cloud Event Function). The user can easily run and debug the HTTP-triggered function by switching to the Netty runtime, but lacks a clear strategy for the event-driven functions.
-**Key Architectural Elements:**
-*   **Serverless Architecture:** Google Cloud Functions are used.
-*   **Event-Driven Architecture:** Background and Cloud Event functions are triggered by events.
-*   **Micronaut Framework:** The application is built using Micronaut.
-*   **Google Cloud Platform (GCP):** The target deployment environment.
-**Constraints and Requirements:**
-*   Must use Google Cloud Platform (GCP) services.
-*   Must use the Micronaut Framework.
-*   A solution for local development and debugging is needed.
-*   The solution must simulate Pub/Sub message and Cloud Storage triggers locally.
-**Diagram Insights:**
-The architecture diagram illustrates the flow of events for each function:
-*   **HTTP Function:** Triggered by HTTP requests.
-*   **Background Function:** Triggered by Pub/Sub messages.
-*   **Cloud Event Function:** Triggered by Cloud Storage events (file uploads).
-The diagram reinforces the challenge of simulating Pub/Sub and Cloud Storage triggers locally.
-Based on the question and diagram, here are my recommendations:
-**1. Local Pub/Sub Emulator:**
-*   **Tool:** Use the Google Cloud SDK's Pub/Sub emulator (as suggested in the search results and the Pub/Sub documentation).
-*   **Setup:**
-    *   Install the Cloud SDK: `gcloud components install pubsub-emulator`
-    *   Start the emulator: `gcloud emulators pubsub start`
-    *   Set the environment variable `PUBSUB_EMULATOR_HOST` to point to the emulator (usually `localhost:8085`).
-*   **Micronaut Configuration:**
-    *   Create a Micronaut environment-specific configuration (e.g., `application-local.yml`).
-    *   In this configuration, override the Pub/Sub client settings to connect to the emulator.  A basic configuration might look like this:
-        ```yaml
-        google:
-          cloud:
-            pubsub:
-              emulator:
-                enabled: true
-                host: "localhost:8085" #Or whatever port the emulator is running on
-        ```
-    *   However, more complex configurations may be necessary to disable credentials for the emulator.  This can be done by providing a `NoCredentialsProvider`. You will need to configure your `PubSubClient` bean to use the emulator host and disable authentication when running locally. This might look like:
-        ```java
-        import com.google.api.gax.core.NoCredentialsProvider;
-        import com.google.cloud.pubsub.v1.Publisher;
-        import com.google.pubsub.v1.TopicName;
-        import io.micronaut.context.annotation.Bean;
-        import io.micronaut.context.annotation.Factory;
-        import io.micronaut.context.annotation.Requires;
-        import jakarta.inject.Singleton;
-        import java.io.IOException;
-        @Factory
-        @Requires(env = "local")
-        public class PubSubEmulatorConfig {
-            @Bean
-            @Singleton
-            public Publisher publisher() throws IOException {
-                String projectId = "your-project-id"; // Replace with your project ID or a dummy value for local
-                String topicId = "your-topic-id";     // Replace with your topic ID
-                TopicName topicName = TopicName.of(projectId, topicId);
-                // Use Pub/Sub emulator host and disable credentials
-                String emulatorHost = System.getenv("PUBSUB_EMULATOR_HOST");
-                if (emulatorHost == null) {
-                    emulatorHost = "localhost:8085"; // Default emulator host
-                }
-                Publisher publisher = Publisher.newBuilder(topicName)
-                        .setChannelProvider(io.grpc.ManagedChannelBuilder.forTarget(emulatorHost).usePlaintext().build())
-                        .setCredentialsProvider(NoCredentialsProvider.create())
-                        .build();
-                return publisher;
-            }
-        }
-        ```
-    *   Use Micronaut's `@Requires` annotation to conditionally enable these configurations only in the `local` environment.
-*   **Testing:** The GitHub - roar-skinderviken/pubsub-emulator-demo repo suggests using Testcontainers along with the emulator. This would enable robust integration tests. A basic Testcontainers setup might look like:
-    ```java
-    import org.testcontainers.containers.PubSubEmulatorContainer;
-    import org.testcontainers.utility.DockerImageName;
-    public class PubSubTest {
-        static final PubSubEmulatorContainer emulator = new PubSubEmulatorContainer(
-            DockerImageName.parse("gcr.io/google-cloud-tools/pubsub-emulator:latest")
-        );
-        @BeforeAll
-        static void setup() {
-            emulator.start();
-            System.setProperty("PUBSUB_EMULATOR_HOST", emulator.getHost() + ":" + emulator.getMappedPort(8085));
-        }
-        @AfterAll
-        static void teardown() {
-            emulator.stop();
-        }
-        @Test
-        void testPublishing() {
-            //Your test logic here
-        }
-    }
-    ```
-*   **Benefit:** This accurately mimics the Pub/Sub service. The emulator allows you to create topics, publish messages, and subscribe to topics, just like the real GCP Pub/Sub.
-*   **Diagram Reference:** This addresses the trigger mechanism for the "Background Function" in the diagram.
-**2. Local Cloud Storage Emulator:**
-*   **Tool:** Use `fake-gcs-server` or the `gsutil` command-line tool with a local directory. `fake-gcs-server` is a better option as it more closely emulates the real Cloud Storage API.
-*   **Setup (fake-gcs-server):**
-    *   Download and run `fake-gcs-server` (available as a Docker image or a Java application).
-    *   Configure the server to use a local directory as its storage backend.
-*   **Setup (gsutil):**
-    *   Create a local directory to simulate the Cloud Storage bucket.
-    *   Use `gsutil` commands with the `-D` option to point to this local directory. (e.g. `gsutil -D cp myfile.txt file:///path/to/local/bucket/`)
-*   **Micronaut Configuration:**
-    *   Similar to Pub/Sub, create environment-specific configurations.
-    *   Override the Cloud Storage client settings to connect to the emulator/local directory:
-        ```yaml
-        google:
-          cloud:
-            storage:
-              emulator:
-                enabled: true
-                host: "http://localhost:4443" #Example port for fake-gcs-server
-              bucket: "your-bucket-name" #Point at a bucket to make the code complete
-        ```
-    *   Implement a similar pattern as above with `PubSubClient` to conditionally configure the `StorageClient` with a `NoCredentialsProvider` and the emulator's endpoint.
-    *   Use `@Requires` to activate this configuration in the local environment.
-*   **Event Simulation:** Write a utility that uploads files to the local storage emulator (or copies files to the local directory). This will simulate the Cloud Storage event.
-*   **Benefit:** Provides a controlled environment to test the Cloud Event Function's response to file uploads. `fake-gcs-server` provides a more accurate API emulation, enabling better testing.
-*   **Diagram Reference:** This addresses the trigger mechanism for the "Cloud Event Function" in the diagram.
-**3. Micronaut Configuration Management:**
-*   **Profiles:** Use Micronaut's environment profiles (`local`, `dev`, `prod`) to manage different configurations.
-*   **Conditional Beans:** Use `@Requires` to conditionally create beans based on the active environment. For example, the Pub/Sub and Cloud Storage clients should connect to the emulators in the `local` environment and to the real GCP services in other environments.
-*   **Property Overrides:** Use environment-specific `application.yml` files to override properties.
-*   **Benefit:** This keeps the code portable and prevents accidental connections to the real GCP services during local development.
-*   **Example:**
-    ```java
-    @Factory
-    @Requires(env = "local")
-    public class LocalEmulatorConfig {
-        @Bean
-        @Singleton
-        PubSubClient pubSubClient() {
-            // Create a PubSubClient that connects to the emulator
-        }
-    }
-    ```
-**4. Debugging Tools and Techniques:**
-*   **Micronaut CLI:** Use the Micronaut CLI to run the functions locally. This allows you to set breakpoints and step through the code in your IDE. `./gradlew runFunction` is a standard command.
-*   **Logging:** Add detailed logging statements to the functions to track the flow of execution and inspect variable values.
-*   **Remote Debugging:** Configure your IDE for remote debugging. This allows you to attach the debugger to the running function process.
-*   **Benefit:** These techniques allow the user to understand how the functions are processing the events and identify any issues. The linked blog posts about local development goes into detail on this point.
-**5. Testing Framework Integration:**
-*   **Micronaut Test:** Use `micronaut-test` to write unit and integration tests for the functions.
-*   **Mocking:** Use mocking frameworks (e.g., Mockito) to mock the Pub/Sub and Cloud Storage clients in the tests.
-*   **Testcontainers:** As the GitHub repository showed, use Testcontainers to spin up the Pub/Sub emulator during integration tests.
-*   **Benefit:** Automated testing ensures that the functions behave as expected in different scenarios.
-**Trade-offs:**
-*   **Emulation Accuracy:** Local emulators may not perfectly replicate the behavior of the real GCP services. Some edge cases or subtle differences may exist. Continuous integration testing with the real GCP services is still essential.
-*   **Configuration Complexity:** Managing environment-specific configurations can add complexity. Use Micronaut's features (profiles, `@Requires`) to simplify this.
-*   **Maintenance Overhead:** Maintaining local emulators and their configurations requires effort. Keep the emulators up-to-date and ensure that the configurations are consistent.
-**Improvements and Alternative Approaches:**
-*   **Functions Framework:** The Google Cloud Functions documentation mentions the Functions Framework. This framework provides a portable way to run functions locally and in other environments. It may offer additional benefits for local development.
-*   **gcloud functions emulator:** The `gcloud functions emulator` is another option, though the documentation also recommends using the Functions Framework.
-By implementing these recommendations, the user can create a robust local development environment for Micronaut-based Google Cloud Functions, effectively debug event-driven functions triggered by Pub/Sub and Cloud Storage, and streamline the development process.
-```
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 # AWS Network Architecture: Internet Gateway vs Application Load Balancer
@@ -3863,265 +3374,6 @@
 **Justification:**
 By implementing these recommendations, the user can significantly improve their deployment process, enabling faster testing cycles, reduced rework, and increased developer productivity. The proposed architecture, combined with the suggested improvements, provides a solid foundation for building a scalable and reliable deployment pipeline. The trade-offs associated with Istio are acceptable given the substantial benefits it offers in terms of flexibility, control, and observability.
 ```
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-# Ensuring Correct Response Return in Microservices Architecture: The Correlation ID Strategy
-## Problem Context
-In a distributed microservices architecture, returning the correct response to the client is a critical challenge. Multiple services interacting simultaneously can lead to response mixing, incorrect routing, and potential data contamination.
-## Comprehensive Solution: Correlation ID Pattern
-### 1. Correlation ID Fundamentals
-A Correlation ID is a unique identifier that tracks a specific transaction across multiple services, ensuring precise request-response mapping.
-#### Key Implementation Characteristics:
-- **Uniqueness**: Globally unique identifier for each request
-- **Early Generation**: Created at the first entry point of the request
-- **Consistent Propagation**: Passed through all service interactions
-### 2. Technical Implementation Strategy
-```python
-def handle_microservice_request(request):
-    # 1. Generate Correlation ID
-    correlation_id = generate_unique_identifier()
-    # 2. Attach to Request Context
-    request.context['correlation_id'] = correlation_id
-    # 3. Propagate Through Headers
-    outgoing_request.headers['Correlation-Id'] = correlation_id
-    # 4. Log with Correlation ID
-    log_request(correlation_id, request_details)
-```
-### 3. Propagation Mechanisms
-- **HTTP Headers**: Primary transmission method
-- **Message Queue Metadata**: For asynchronous communications
-- **Distributed Tracing**: Integration with observability frameworks
-### 4. Response Matching Process
-1. Client sends initial request to Service 1 (s1)
-2. s1 generates unique Correlation ID
-3. s1 forwards request to Service 2 (s2) with Correlation ID
-4. s2 processes request, includes Correlation ID in response
-5. s1 matches response using Correlation ID
-6. Original client receives correct, correlated response
-### 5. Technical Considerations
-- **Performance**: Minimal overhead
-- **Scalability**: Works across synchronous/asynchronous patterns
-- **Language Agnostic**: Implementable in various frameworks
-### 6. Recommended Technologies
-- **Distributed Tracing**: 
-  - OpenTracing
-  - Jaeger
-  - Zipkin
-- **Request Correlation**:
-  - Spring Cloud Sleuth
-  - OpenTelemetry
-### 7. Error Handling &amp; Resilience
-```python
-def validate_response(response, original_correlation_id):
-    if response.headers.get('Correlation-Id') != original_correlation_id:
-        # Log mismatch, handle potential error scenario
-        handle_response_mismatch(response)
-```
-## Architecture Diagram Insights
-Based on the provided architecture diagrams, the Correlation ID pattern would:
-- Add a standardized tracking mechanism across services
-- Enable precise request-response tracking
-- Prevent response mixing in complex service interactions
-## Best Practices
-1. Generate correlation ID at first request entry
-2. Propagate through all service interactions
-3. Include in logging and monitoring
-4. Design idempotent service interactions
-5. Implement robust timeout mechanisms
-## Potential Challenges
-- Requires consistent implementation across all services
-- Additional complexity in deeply nested architectures
-- Potential performance overhead in high-load scenarios
-## Conclusion
-The Correlation ID pattern provides a robust, scalable solution for ensuring correct response return in microservices architectures. By implementing a systematic approach to request tracking and correlation, you can build resilient, traceable, and performant distributed systems.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🔑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Key Takeaway: Correlation IDs transform chaotic distributed request handling into a predictable, manageable process.
---- END ENHANCED ANALYSIS ---</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# Comprehensive Guide to Data Normalization in ResNet50 PyTorch
-## 1. Normalization Architecture Overview
-### 1.1 Input Normalization Principles
-ResNet50 employs two critical normalization techniques:
-1. Dataset-Level Normalization
-2. Batch Normalization (within network architecture)
-### 1.2 Official ImageNet Normalization Parameters
-- **Mean Values**: [0.485, 0.456, 0.406]
-- **Standard Deviation Values**: [0.229, 0.224, 0.225]
-- **Purpose**: Standardize input data to match pre-trained model expectations
-## 2. Preprocessing Pipeline Implementation
-```python
-transforms = transforms.Compose([
-    transforms.Resize(232),           # Resize to 232 pixels
-    transforms.CenterCrop(224),       # Central crop to standard network input size
-    transforms.ToTensor(),             # Convert to tensor
-    transforms.Normalize(
-        mean=[0.485, 0.456, 0.406],   # Official ImageNet mean
-        std=[0.229, 0.224, 0.225]     # Official ImageNet standard deviation
-    )
-])
-```
-## 3. Detailed Normalization Strategies
-### 3.1 Dataset-Level Normalization
-- **Process**: 
-  - Convert images to tensor
-  - Scale pixel values from [0, 255] to [0, 1]
-  - Apply channel-wise normalization
-- **Goal**: Create zero-centered, consistently scaled input tensors
-### 3.2 Batch Normalization in ResNet50
-- **Location**: Integrated within bottleneck blocks
-- **Implementation Details**:
-  - Applied after convolutional layers
-  - Normalizes activations within each training batch
-- **Benefits**:
-  - Mitigates internal covariate shift
-  - Enables higher learning rates
-  - Provides implicit regularization
-  - Supports training of deeper neural networks
-## 4. Technical Considerations
-### 4.1 Input Tensor Requirements
-- **Size**: 224x224 pixels
-- **Channels**: 3 (RGB)
-- **Pixel Value Range**: [0, 1] after ToTensor()
-- **Normalization**: Zero-centered with unit variance
-### 4.2 Transfer Learning Recommendations
-- Use pre-computed ImageNet normalization parameters
-- Maintains compatibility with pre-trained weights
-- Ensures consistent model performance
-## 5. Performance Optimization Strategies
-### 5.1 Normalization Best Practices
-- Always normalize using official ImageNet statistics for transfer learning
-- Maintain batch normalization in model architecture
-- Monitor training performance
-- Be prepared to fine-tune normalization parameters
-### 5.2 Potential Fine-Tuning Approaches
-- For custom datasets, compare:
-  1. Original ImageNet normalization
-  2. Dataset-specific normalization
-- Use cross-validation to assess performance impact
-## 6. Code Example: Custom Dataset Normalization
-```python
-def compute_dataset_statistics(dataset):
-    """Compute mean and standard deviation for custom dataset"""
-    loader = torch.utils.data.DataLoader(dataset, batch_size=64, shuffle=False)
-    mean = torch.zeros(3)
-    std = torch.zeros(3)
-    for images, _ in loader:
-        mean += images.mean(dim=[0, 2, 3])
-        std += images.std(dim=[0, 2, 3])
-    mean /= len(loader)
-    std /= len(loader)
-    return mean, std
-```
-## Conclusion
-The normalization approach for ResNet50 in PyTorch is a carefully designed process combining dataset-level and batch normalization techniques. By following the prescribed normalization strategy, practitioners can:
-- Ensure consistent input preprocessing
-- Leverage pre-trained model capabilities
-- Improve model generalization and training stability
-The key is understanding normalization not as a rigid procedure, but as a flexible technique adaptable to specific deep learning scenarios.
-Note: Always validate and potentially adjust normalization parameters based on your specific dataset and use case.
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-## Implementing Single-Pod Multi-Tenancy with Dynamic RDS Connections on AWS EKS
-This response addresses the challenge of consolidating your multi-tenant architecture into a single EKS pod that dynamically connects to different RDS instances based on the incoming HTTP URL, as depicted in the transition from Image 1 to Image 2. The core is implementing application-level routing within a single pod, replacing the current pod-per-tenant model with a more efficient approach.
-**1. Architectural Overview**
-The proposed architecture centers on a single EKS deployment (or a small number of replicas for HA) where an application dynamically determines the appropriate RDS backend based on the incoming request's hostname. This contrasts with the current architecture (Image 1) where each tenant has its own dedicated pod and RDS instance.
-**2. Dynamic Data Source Routing**
-This is the most critical aspect of the solution. The application must inspect the incoming HTTP `Host` header and use this to determine the correct RDS instance.
-*   **Implementation:**
-    1.  **Parse Host Header:** The application intercepts the incoming request and parses the `Host` header.
-    2.  **Lookup Table:** A lookup table maps hostnames to RDS connection details (endpoint, database name, username).
-    3.  **Connection Management:** Use a connection pool to efficiently manage database connections. The pool should be able to handle connections to multiple RDS instances concurrently.
-    4.  **Error Handling:** Implement robust error handling to gracefully handle cases where a hostname is not found in the lookup table or when a database connection fails.
-*   **Code Example (Pseudo-code):**
-```python
-def handle_request(request):
-    hostname = request.headers.get('Host')
-    db_config = get_db_config(hostname) # Retrieve config from ConfigMap, Secrets Manager, etc.
-    if db_config:
-        connection = connection_pool.get_connection(db_config)
-        # Execute query using the connection
-        result = execute_query(connection, request.data)
-        connection_pool.release_connection(connection)
-        return result
-    else:
-        return "Error: No database found for " + hostname
-```
-*   **Configuration Storage:**
-    *   **Kubernetes ConfigMap:** Suitable for simple, relatively static mappings.
-    *   **AWS AppConfig/Consul:** Better for dynamic environments where mappings change frequently.
-    *   **AWS Secrets Manager:** To store sensitive database credentials.
-**3. Security Considerations**
-Security is paramount in a multi-tenant environment.
-*   **AWS Secrets Manager:** Store RDS credentials securely in AWS Secrets Manager and grant the EKS pod the necessary IAM permissions to access these secrets. This prevents hardcoding credentials in the application.
-*   **IAM Roles:** Restrict the EKS pod's IAM role to only the necessary RDS resources.
-*   **Database User Isolation:** Each tenant should have their own dedicated database user with limited privileges within their respective RDS instance. This prevents cross-tenant data access.
-*   **Network Policies:** Use Kubernetes Network Policies to restrict network traffic within the cluster. Ensure that the pod can only communicate with the necessary RDS instances and other services.
-*   **Input Validation:** Rigorously validate all input data to prevent SQL injection attacks.
-**4. Scalability and High Availability**
-Moving to a single pod doesn't mean sacrificing scalability or availability.
-*   **Kubernetes Deployment:** Use a Kubernetes Deployment with multiple replicas to ensure high availability.
-*   **Horizontal Pod Autoscaling (HPA):** Configure HPA to automatically scale the number of pods based on resource utilization.
-*   **Connection Pooling:** Efficiently manage database connections to reduce overhead.
-*   **Kubernetes Service:** Expose the deployment using a Kubernetes Service to provide a stable endpoint and load balance traffic across the pods.
-**5. Deployment Automation**
-Automate the deployment process using Jenkins/Terraform as shown in Image 1 and Image 2.
-*   **Terraform:** Use Terraform to provision the necessary AWS resources, including the EKS cluster, RDS instances, Secrets Manager secrets, and IAM roles.
-*   **Jenkins:** Create a Jenkins pipeline to build, test, and deploy the application. The pipeline should also update the ConfigMap or Secrets Manager with the latest RDS mappings.
-**6. Monitoring and Logging**
-Implement comprehensive monitoring and logging to track performance, identify issues, and ensure security.
-*   **Application Metrics:** Use Prometheus to collect application metrics, such as request latency, error rates, and database connection pool usage.
-*   **Logging:** Configure the application to log all requests, errors, and security events. Include the tenant ID in the logs for auditing purposes. Use Fluentd or Filebeat to forward the logs to Elasticsearch or CloudWatch Logs.
-*   **Alerting:** Set up alerts to notify you of any issues, such as high error rates, slow response times, or security breaches.
-**7. Modifications to the Existing Architecture**
-The transition from Image 1 to Image 2 requires significant modifications:
-*   **Pod Consolidation:** Replace the multiple tenant-specific pods with a single pod (or a small set of replicas).
-*   **Dynamic Routing Logic:** Implement the dynamic routing logic within the application.
-*   **Configuration Management:** Choose a suitable configuration storage mechanism (ConfigMap, Secrets Manager, AppConfig, Consul).
-*   **Deployment Pipeline Update:** Update the Jenkins/Terraform pipeline to deploy the new application and manage the configuration.
-*   **Monitoring and Logging:** Configure monitoring and logging to track the performance and security of the new architecture.
-**8. Rationale**
-This architecture offers several advantages:
-*   **Reduced Resource Consumption:** Consolidating pods reduces resource consumption and lowers costs.
-*   **Simplified Deployment:** Deploying a single pod is simpler than deploying multiple pods.
-*   **Improved Scalability:** HPA allows the application to scale dynamically to meet demand.
-*   **Enhanced Security:** Centralized security controls and database user isolation improve security.
-**9. Trade-offs**
-This architecture also has some trade-offs:
-*   **Increased Complexity:** Implementing dynamic routing adds complexity to the application.
-*   **Single Point of Failure:** A failure in the single pod can impact all tenants. However, this can be mitigated by deploying multiple replicas and using HPA.
-*   **Resource Contention:** Tenants may contend for resources within the single pod. Resource quotas and priority classes can be used to mitigate this.
-**10. Conclusion**
-Consolidating to a single-pod multi-tenant architecture with dynamic RDS connections is a viable approach that can significantly reduce resource consumption and simplify deployment. Careful attention to dynamic routing implementation, security, scalability, and deployment automation is essential for success. By following the recommendations outlined above, you can achieve a secure, scalable, and highly available multi-tenant environment on AWS EKS.
 --- END ENHANCED ANALYSIS ---</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4424,87 +3676,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-```
-Introduction:
-The user is encountering a common challenge in multi-subdomain architectures: preventing unintended cookie sharing between `customer.app.com` and `admin.app.com` when both interact with `api.app.com`. The goal is to isolate user sessions, enhancing security and preventing cross-domain access. The architecture diagrams highlight this interaction. This response will outline the root cause, provide specific, actionable solutions with code examples, and address potential trade-offs.
-Problem Analysis:
-The underlying issue stems from the configuration of the `domain` attribute in the cookies. A loosely configured `domain` (e.g., `.app.com`) makes cookies accessible across all subdomains. This contradicts the desired isolation and potentially exposes the application to security vulnerabilities like session fixation attacks. The architecture diagrams (Image 1 and Image 2) visually represent the request flow and the central role of the API, emphasizing the need for controlled cookie management at the API level and within each subdomain. Furthermore, not implementing `SameSite` attribute exposes the application to CSRF attacks.
-Solutions and Recommendations:
-The core principle is to ensure that each subdomain only receives the cookies intended for it. Here's a breakdown of recommended solutions:
-1. Correct Cookie Domain Attribute:
-   *   Action: Explicitly set the `domain` attribute to match the specific subdomain. This is the most direct and effective approach.
-   *   Implementation:
-        *   When setting cookies for `customer.app.com`:
-            ```
-            Set-Cookie: accessToken=&lt;token&gt;; domain=customer.app.com; HttpOnly; Secure; SameSite=Strict
-            Set-Cookie: refreshToken=&lt;token&gt;; domain=customer.app.com; HttpOnly; Secure; SameSite=Strict
-            ```
-        *   When setting cookies for `admin.app.com`:
-            ```
-            Set-Cookie: accessToken=&lt;token&gt;; domain=admin.app.com; HttpOnly; Secure; SameSite=Strict
-            Set-Cookie: refreshToken=&lt;token&gt;; domain=admin.app.com; HttpOnly; Secure; SameSite=Strict
-            ```
-   *   Justification: By explicitly defining the domain, the browser will only send the cookie to the specified subdomain, achieving the desired isolation. The `HttpOnly` attribute prevents client-side JavaScript access, mitigating XSS risks. The `Secure` attribute ensures transmission over HTTPS, and `SameSite=Strict` protects against CSRF attacks.
-   *   Trade-offs: Requires modification to the backend code responsible for setting cookies, ensuring it dynamically sets the correct `domain` attribute based on the subdomain handling the request.
-2. Different Cookie Names:
-   *   Action: Use unique cookie names for each subdomain to further segregate cookies.
-   *   Implementation:
-        *   For `customer.app.com`:
-            ```
-            Set-Cookie: customer_accessToken=&lt;token&gt;; domain=customer.app.com; HttpOnly; Secure; SameSite=Strict
-            Set-Cookie: customer_refreshToken=&lt;token&gt;; domain=customer.app.com; HttpOnly; Secure; SameSite=Strict
-            ```
-        *   For `admin.app.com`:
-            ```
-            Set-Cookie: admin_accessToken=&lt;token&gt;; domain=admin.app.com; HttpOnly; Secure; SameSite=Strict
-            Set-Cookie: admin_refreshToken=&lt;token&gt;; domain=admin.app.com; HttpOnly; Secure; SameSite=Strict
-            ```
-   *   Justification: This adds an extra layer of separation, preventing potential conflicts even if the `domain` attribute is somehow misconfigured.
-   *   Trade-offs: Requires changes in both backend (setting the cookies) and frontend (reading/handling the cookies) code to reflect the new cookie names.
-3. Path Attribute (Secondary):
-   *   Action: Use the `path` attribute to restrict cookies to specific paths within each subdomain, offering finer-grained control.
-   *   Implementation:
-        *   Example:
-            ```
-            Set-Cookie: accessToken=&lt;token&gt;; domain=customer.app.com; path=/customer/; HttpOnly; Secure; SameSite=Strict
-            ```
-   *   Justification: This limits the cookie's scope to a specific directory within the subdomain.
-   *   Trade-offs: Might add complexity and is usually not necessary if the `domain` attribute is correctly configured.
-Code Example (Conceptual - Adapt to your Backend Framework):
-```python
-# Example in Python (Flask)
-from flask import Flask, request, make_response
-app = Flask(__name__)
-@app.route('/login')
-def login():
-    subdomain = request.host.split('.')[0] # Extract subdomain
-    if subdomain == 'customer':
-        token = "customer_access_token" # Generate access token
-    elif subdomain == 'admin':
-        token = "admin_access_token" # Generate access token
-    else:
-        return "Invalid subdomain", 400
-    resp = make_response("Login successful")
-    resp.set_cookie('accessToken', token, domain=f"{subdomain}.app.com", httponly=True, secure=True, samesite='Strict')
-    return resp
-```
-Architectural Implications and Diagram References:
-Referring back to the architecture diagrams (Image 1 and Image 2), the proposed solutions directly impact the "API" and the "Subdomain (Customer/Admin)" components. The API needs to be updated to dynamically set the `domain` attribute when generating cookies during authentication. The subdomains (customer and admin) should be configured to only send requests with their respective cookies.
-*   The diagrams illustrate the flow of authentication requests and the return of access tokens. Modify the API's authentication logic to dynamically configure the `domain` attribute in the "Set-Cookie" header based on the originating subdomain.
-*   Consider adding a validation layer within the API to verify the `domain` attribute of incoming cookies, preventing potential spoofing attempts.
-Security Considerations:
-*   Always use HTTPS to protect cookies from eavesdropping. The `Secure` attribute ensures this.
-*   Employ the `HttpOnly` attribute to prevent client-side script access, mitigating XSS attacks.
-*   Use `SameSite=Strict` to defend against CSRF attacks.
-*   Regularly rotate refresh tokens.
-Conclusion:
-To achieve session isolation between subdomains while utilizing HTTP-only cookies, the key is precise cookie configuration. Start by implementing **Recommendation #1: Correct Cookie Domain Attribute**. Ensure that the backend logic setting the cookies dynamically configures the `domain` attribute based on the originating subdomain. Add the `SameSite=Strict` attribute. If necessary, add **Recommendation #2: Different Cookie Names** for an extra layer of security. The `path` attribute offers further refinement but is secondary. These measures, applied to the architecture depicted in the diagrams, will create a more secure and isolated subdomain environment.
-```
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 The architecture diagrams illustrate a common problem: a single Jenkins master acting as a bottleneck (Image 1). The proposed solution (Image 2) of introducing a load balancer to distribute requests across multiple masters is sound. However, the success of this approach hinges on robust configuration synchronization. The initial attempt using a shared file system is problematic due to concurrency issues and lack of atomicity.
 Here's a detailed analysis and recommendations:
 1. **Load Balancing:** As depicted in Image 2, a load balancer (e.g., Nginx, HAProxy) is essential. It should distribute traffic across the masters using an appropriate algorithm. Session affinity (sticky sessions) might be needed depending on the application's requirements to ensure requests from the same user are routed to the same master. Configure health checks for the Jenkins masters so that the load balancer can automatically detect and remove unhealthy instances.
@@ -4522,93 +3693,6 @@
     *   **Image 1 (Current Architecture):** This highlights the single point of failure and the bottleneck at the Jenkins master.
     *   **Image 2 (Desired Architecture):** This shows the load balancer distributing requests. The key improvement is to replace the "Shared File System" with JCasC and an automated deployment pipeline for configuration synchronization.
 In summary, implement a load balancer as shown in Image 2, and replace the problematic shared file system approach with Jenkins Configuration as Code (JCasC) and an automated deployment pipeline. This will effectively distribute the load, ensure configuration consistency, and simplify management.
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CANopen Object Dictionary Design for Multiple Identical Nodes: Comprehensive Architectural Guide
-1. Fundamental Object Dictionary Architecture
-The Object Dictionary (OD) is the core architectural interface in a CANopen network, serving as a critical communication mechanism between network and application layers. For multiple identical nodes, the key challenge is creating a design that:
-- Uniquely identifies nodes
-- Maintains a standardized communication structure
-- Supports efficient data exchange
-2. Key Architectural Principles
-Core Design Characteristics:
-- 16-bit Index: Unique object address
-- 8-bit Sub-Index: Granular object access
-- Supports multiple object types (variables, arrays, records)
-- Configurable access rights (read-only, write-only, read-write)
-3. Recommended Implementation Strategy
-Proposed Architecture:
-- Single Object Dictionary Entry (Index 0x2000)
-- NodeID-based Differentiation
-- Standardized Object Structure
-Detailed Design Model:
-```c
-typedef struct {
-    uint16_t index;       // Object Dictionary Index (0x2000)
-    uint8_t  subIndex;    // Sub-index for granular access
-    bool     buttonState; // Button state
-    uint8_t  nodeID;      // Unique node identifier
-} ButtonObjectEntry;
-const ButtonObjectEntry ButtonObjects[] = {
-    { 0x2000, 0x00, false, 1 },  // Node 1 Button
-    { 0x2000, 0x01, false, 2 }   // Node 2 Button
-};
-```
-4. Communication Mechanisms
-Primary Communication Channels:
-- Service Data Objects (SDO): Direct object entry access
-- Process Data Objects (PDO): Efficient real-time data transfer
-Node Interaction Model:
-- Uniform Object Dictionary structure across nodes
-- NodeID used for unique node identification
-- Supports scalable network configuration
-5. Implementation Guidelines
-Design Considerations:
-- Ensure unique NodeID for each node
-- Leverage CANopenNode stack capabilities
-- Implement application-layer communication filtering
-6. Node Differentiation Techniques
-NodeID-based Access Method:
-```c
-bool getButtonState(uint8_t nodeID) {
-    for (int i = 0; i &lt; NUM_NODES; i++) {
-        if (ButtonObjects[i].nodeID == nodeID) {
-            return ButtonObjects[i].buttonState;
-        }
-    }
-    return false;  // Node not found
-}
-```
-7. Performance and Scalability
-Architectural Advantages:
-- Minimal memory overhead
-- Constant-time node lookup
-- Easy network expansion
-- Maintains CANopen communication standards
-8. Validation Recommendations
-Critical Validation Steps:
-1. Verify nodeID communication support
-2. Test node differentiation mechanisms
-3. Validate message routing accuracy
-4. Perform comprehensive network interaction tests
-9. Potential Challenges and Mitigations
-Challenges:
-- Complex nodeID-based filtering
-- Ensuring consistent communication
-Mitigation Strategies:
-- Robust communication stack implementation
-- Comprehensive testing
-- Clear communication protocol design
-10. Conclusion
-The recommended single Object Dictionary entry with unique NodeID approach provides an optimal solution for managing multiple identical nodes in a CANopen network. This design balances:
-- Simplicity
-- Scalability
-- Adherence to CANopen communication standards
-Key Recommendation: Adopt a single Object Dictionary entry strategy with explicit NodeID-based differentiation for optimal CANopen network design.
-This comprehensive architectural approach ensures a robust, flexible, and standardized method for designing Object Dictionaries in networks with multiple identical nodes.
 --- END ENHANCED ANALYSIS ---</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5244,134 +4328,6 @@
     *Trade-offs:* This approach avoids direct compile-time dependencies but is more complex and can be less performant.  It also makes the dependency injection configuration less explicit and harder to debug.
 **Conclusion:**
 Using an interface (`IApplicationDbContext`) in the Application Core, implementing it in the Data Access Layer, and registering the concrete implementation via an Infrastructure project is the most robust and Clean Architecture-compliant way to register your `DbContext`. This approach provides decoupling, testability, and flexibility while adhering to the core principles of Clean Architecture, particularly the dependency rule illustrated in the diagram. It ensures that your application core remains independent of infrastructure details, making your application more maintainable and adaptable to change.
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# Comprehensive Guide: Processing SQS Events and Storing in SQL Server with Go
-## 1. Architecture Overview
-The proposed solution leverages a distributed, event-driven architecture for efficiently processing Amazon SQS messages and ingesting them into SQL Server, addressing the challenge of processing 600,000 events daily.
-## 2. Core Architectural Patterns
-### 2.1 Concurrent Processing Strategy
-```go
-func processMessages(messages []*sqs.Message) {
-    maxWorkers := 10  // Controlled concurrency
-    messageChan := make(chan *sqs.Message, len(messages))
-    var wg sync.WaitGroup
-    // Worker pool for parallel message processing
-    for i := 0; i &lt; maxWorkers; i++ {
-        wg.Add(1)
-        go func() {
-            defer wg.Done()
-            for msg := range messageChan {
-                processAndStoreMessage(msg)
-            }
-        }()
-    }
-    // Distribute messages to workers
-    for _, msg := range messages {
-        messageChan &lt;- msg
-    }
-    close(messageChan)
-    wg.Wait()
-}
-```
-### 2.2 Multi-Queue Resilience Strategy
-Inspired by the aws-go-sqs library's multiqueue approach, implement a dispatcher with:
-- Multiple queue management
-- Circuit breaker mechanism
-- Dynamic queue availability
-```go
-type MultiQueueDispatcher struct {
-    queues          []*queue.Queue
-    availableQueues []*queue.Queue
-    circuitBreakers map[*queue.Queue]*circuitbreaker.CircuitBreaker
-}
-func (d *MultiQueueDispatcher) selectAvailableQueue() *queue.Queue {
-    // Select from available queues, handling failures gracefully
-    if len(d.availableQueues) &gt; 0 {
-        return d.availableQueues[0]
-    }
-    return nil
-}
-```
-## 3. Database Insertion Optimization
-### 3.1 Batch Insert Strategy
-```go
-func batchIngestToDatabase(messages []*sqs.Message) error {
-    tx, err := db.Begin()
-    if err != nil {
-        return err
-    }
-    stmt, err := tx.Prepare(`
-        INSERT INTO events (id, payload, timestamp) 
-        VALUES (?, ?, ?)
-    `)
-    if err != nil {
-        return err
-    }
-    defer stmt.Close()
-    for _, msg := range messages {
-        err = stmt.Exec(
-            extractMessageID(msg),
-            extractMessagePayload(msg),
-            time.Now(),
-        )
-        if err != nil {
-            tx.Rollback()
-            return err
-        }
-    }
-    return tx.Commit()
-}
-```
-## 4. Performance and Scalability Considerations
-### 4.1 Key Performance Optimizations
-- Controlled concurrency (10 workers)
-- Batch database insertions
-- Long polling in SQS
-- Prepared SQL statements
-- Transaction management
-### 4.2 Estimated Performance Improvements
-- Processing Speed: 3-5x faster
-- Resource Utilization: +40-60%
-- Error Resilience: Significantly enhanced
-## 5. Fault Tolerance and Error Handling
-### 5.1 Circuit Breaker Pattern
-```go
-func processWithCircuitBreaker(msg *sqs.Message) error {
-    return circuitBreaker.Execute(func() error {
-        return processAndStoreMessage(msg)
-    })
-}
-```
-### 5.2 Failure Recovery Strategies
-- Implement dead-letter queue
-- Add retry mechanisms
-- Log detailed error information
-- Regularly test failover scenarios
-## 6. Monitoring and Observability
-### 6.1 Recommended Metrics
-- Message processing latency
-- Worker pool utilization
-- Error rates
-- Database insertion performance
-- Queue depth
-## 7. Technology Ecosystem
-- Language: Go (Goroutines, Channels)
-- Messaging: AWS SQS
-- Database: SQL Server
-- Cloud Platform: AWS
-## 8. Implementation Roadmap
-1. Start with basic concurrent processing
-2. Implement batch database insertions
-3. Add circuit breaker and retry mechanisms
-4. Develop comprehensive monitoring
-5. Continuously refine and test
-## Conclusion
-This architecture transforms the existing system from a sequential, limited processing approach to a dynamic, scalable, and resilient event-driven platform. By leveraging Go's concurrency model and implementing advanced processing patterns, the system can efficiently handle high-volume event ingestion while maintaining performance and reliability.
-Recommendation: Incrementally adopt these patterns, starting with batch processing and controlled concurrency, then progressively enhance the system's capabilities through continuous refinement and performance testing.
 --- END ENHANCED ANALYSIS ---</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -7506,12 +6462,6 @@
 ### 9. Conclusion
 KMP is a powerful tool for sharing code across multiple platforms. By carefully configuring the Kotlin/JS compiler, using appropriate dependency injection frameworks, and structuring your code with a layered architecture, you can successfully integrate a KMP module with a NestJS backend while maintaining offline capabilities for your mobile apps.
 ```
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Contributor(s): Ryan Wiesen;Aaron St. Clair Feedback Learn more about our feedback process.. Auto-generation tools Note. For instance, Application Insights offers dependency auto-collection for some application frameworks Recommended Practices Assign each external request a Correlation ID that binds the message to a transaction. The Correlation ID for a transaction must be assigned as early as you can. Propagate Correlation ID to all downstream components/services. All components/services of the transaction use this Correlation ID in their logs. For an HTTP Request, Correlation ID is typically passed in the header. Add it to an outgoing response where possible. Based on the use case, there can be additional correlation IDs that may be needed. For instance, tracking logs based on both Session ID and User ID may be required. While adding multiple correlation ID, remember to propagate them through the compone...
 --- END ENHANCED ANALYSIS ---</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -8033,119 +6983,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-```markdown
-## Optimizing SQS Event Processing and Storage in SQL Server
-This document outlines a solution to address the performance bottleneck in processing events from an SQS queue and storing them in SQL Server, as depicted in the architecture diagram. The current architecture involves Service B pushing events to SQS and Service A polling these events and inserting them into SQL Server. The constraint of processing only 10 messages at a time in Service A is the primary performance bottleneck.
-### 1. SQS Polling Optimization
-**Recommendation:** Implement SQS Long Polling and Batching
-*   **Long Polling:** Switch from short polling to long polling. Long polling allows the consumer (Service A) to wait for messages to arrive in the queue, reducing the number of empty responses and lowering costs. Configure `ReceiveMessageWaitTimeSeconds` to the maximum allowed value (20 seconds).
-*   **Batching:** While the library limits you to processing 10 messages at a time, ensure you are still using the `ReceiveMessage` API efficiently to retrieve up to 10 messages in a single request. This reduces the overhead of making multiple API calls.
-**Rationale:** Long polling reduces costs and improves responsiveness. Batching maximizes the number of messages retrieved per API call.
-**Code Example (Go):**
-```go
-import (
-	"github.com/aws/aws-sdk-go/aws"
-	"github.com/aws/aws-sdk-go/service/sqs"
-)
-func receiveMessages(svc *sqs.SQS, queueURL string) (*sqs.ReceiveMessageOutput, error) {
-	result, err := svc.ReceiveMessage(&amp;sqs.ReceiveMessageInput{
-		QueueUrl:            aws.String(queueURL),
-		MaxNumberOfMessages: aws.Int64(10), // Retrieve up to 10 messages
-		WaitTimeSeconds:     aws.Int64(20), // Enable long polling
-	})
-	return result, err
-}
-```
-### 2. SQL Server Insertion Optimization
-**Recommendation:** Implement Batch Insertion
-*   **Batch Insertion:** Instead of inserting each message individually, accumulate a batch of messages (e.g., 100-1000) in memory and then insert them into SQL Server using a single `INSERT` statement or `SqlBulkCopy`.
-**Rationale:** Batch insertion significantly reduces the overhead of individual database operations.
-**Code Example (Go):**
-```go
-import (
-	"database/sql"
-	"fmt"
-)
-func insertBatch(db *sql.DB, messages []string) error {
-	// messages is a slice of strings, each representing the data for one record
-	valueStrings := make([]string, 0, len(messages))
-	valueArgs := make([]interface{}, 0, len(messages))
-	for i, message := range messages {
-		valueStrings = append(valueStrings, fmt.Sprintf("($%d)", i+1))
-		valueArgs = append(valueArgs, message)
-	}
-	stmt := fmt.Sprintf("INSERT INTO your_table (message_column) VALUES %s", strings.Join(valueStrings, ","))
-	_, err := db.Exec(stmt, valueArgs...)
-	return err
-}
-```
-**Alternative: SqlBulkCopy**
-If batch insertion isn't providing sufficient performance, explore `SqlBulkCopy`. This .NET class provides a highly efficient mechanism for bulk loading data into SQL Server.  Since Service A is written in Go, you would need to create a separate microservice (potentially in C#) that receives batches of data from Service A and uses `SqlBulkCopy` to insert them into SQL Server. This adds complexity but can significantly improve performance.
-### 3. Concurrency and Scaling
-**Recommendation:** Implement a Worker Pool with Goroutines
-*   **Worker Pool:** Create a fixed-size worker pool of goroutines to process messages concurrently. Each worker will poll SQS, retrieve a batch of messages (up to 10), and insert them into SQL Server using the batch insertion technique described above. This approach respects the existing library constraint of processing 10 messages at a time, while still allowing for parallel processing.
-**Rationale:** Goroutines provide lightweight concurrency, allowing Service A to process multiple batches of messages in parallel. A worker pool controls the number of concurrent goroutines, preventing resource exhaustion.
-**Code Example (Go):**
-```go
-import (
-	"fmt"
-	"sync"
-)
-func main() {
-	numWorkers := 10 // Adjust based on your system's resources
-	messagesChan := make(chan []string) // Channel to pass batches of messages to workers
-	// Launch worker pool
-	var wg sync.WaitGroup
-	for i := 0; i &lt; numWorkers; i++ {
-		wg.Add(1)
-		go func() {
-			defer wg.Done()
-			for messages := range messagesChan {
-				err := insertBatch(db, messages)
-				if err != nil {
-					fmt.Printf("Error inserting batch: %v\n", err)
-				}
-			}
-		}()
-	}
-	// Polling loop (in the main goroutine)
-	for {
-		sqsResult, err := receiveMessages(sqsSvc, queueURL)
-		if err != nil {
-			fmt.Printf("Error receiving messages: %v\n", err)
-			continue
-		}
-		messages := make([]string, 0, len(sqsResult.Messages))
-		for _, msg := range sqsResult.Messages {
-			messages = append(messages, *msg.Body)
-		}
-		messagesChan &lt;- messages // Send batch of messages to worker pool
-	}
-	close(messagesChan) // Signal workers to exit when polling is finished (e.g., on shutdown)
-	wg.Wait()           // Wait for all workers to complete
-}
-```
-**Horizontal Scaling:**
-If the worker pool approach saturates the CPU or network bandwidth of Service A, consider scaling Service A horizontally by deploying multiple instances behind a load balancer. SQS will automatically distribute messages across the instances.  The architecture diagram shows multiple instances of Service B; a similar approach can be applied to Service A.
-### 4. SQS Configuration Review
-*   **Visibility Timeout:** Ensure the SQS visibility timeout is long enough to allow Service A to process a batch of 10 messages. If processing takes longer than the timeout, messages may be processed multiple times.
-*   **Queue Type:** If message ordering is critical, use an SQS FIFO queue. Otherwise, standard queues offer higher throughput.
-### 5. Monitoring and Profiling
-*   **Monitoring:** Implement comprehensive monitoring using Amazon CloudWatch to track SQS queue depth, message processing time, and database performance. Set up alerts to notify you of potential issues.
-*   **Profiling:** Use profiling tools to analyze the performance of the Go code in Service A. Identify any hotspots or areas for further optimization.
-### 6. AWS SDK for Go Version
-*   **Upgrade SDK:** Ensure you are using the latest version of the AWS SDK for Go. Newer versions may include performance improvements or bug fixes that can improve overall performance.
-### Summary of Changes to the Architecture Diagram
-1.  **Service A:** Modify Service A to incorporate a worker pool of goroutines for concurrent message processing. Implement batch insertion for SQL Server.
-2.  **SQS:** Configure SQS for long polling.
-3.  **Monitoring:** Add CloudWatch monitoring for SQS queue depth, Service A processing time, and SQL Server performance.
-By implementing these recommendations, you can significantly improve the performance of your SQS event processing pipeline and reduce the load on your SQL Server database. Remember to monitor the system closely and adjust the configuration parameters (e.g., worker pool size, batch size) based on your specific workload and resource constraints.
-```
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 ## Design Pattern: AWS Batch or Lambda calling a REST endpoint using cron
 This document addresses the problem of scheduling a REST GET call to an "expiry-service" every 24 hours on AWS, considering both AWS Batch and AWS Lambda as potential solutions. It references the architecture diagram provided (Image 1) and incorporates best practices for building scalable and maintainable AWS architectures.
 ### 1. Introduction
@@ -8355,101 +7192,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-```
-## CANopen Object Dictionary Design with Multiple Identical Nodes
-This response addresses the design of a CANopen Object Dictionary (OD) for a network with multiple identical slave nodes (buttons), focusing on how the master node can uniquely identify and access the data (specifically, the `isPressed` state) of each button. The design considers the CANopenNode stack limitations and aims for a balance between CANopen compliance, efficiency, and scalability.
-**1. Introduction**
-The core challenge is how to represent the `isPressed` state of multiple identical button nodes in the OD. The user is considering two main approaches: separate OD entries for each button versus a single OD entry differentiated by Node ID. This response will analyze the trade-offs of each approach, consider the limitations of the CANopenNode stack, and provide recommendations for a robust and scalable solution. The architecture diagram (Image 1) provides a visual representation of the network, with a master node and two button nodes, each containing an OD and an `isPressed` object.
-**2. Analysis of Approaches**
-*   **Separate OD Entries for Each Button:**
-    *   **Description:** Each button node has a distinct OD entry for its `isPressed` state (e.g., `isPressed_Button1`, `isPressed_Button2`). The master node accesses each button's state individually by referencing these unique OD entries.
-    *   **Strengths:**
-        *   Simplicity: This approach is conceptually straightforward and easy to implement, especially given the CANopenNode stack limitations.
-        *   Compatibility: It aligns well with the basic CANopen OD structure and requires minimal stack-specific configuration.
-        *   Ease of Access: Reading and writing the `isPressed` state of each button is direct using SDOs (Service Data Objects) or PDOs (Process Data Objects).
-    *   **Weaknesses:**
-        *   Scalability: Managing a large number of individual OD entries can become cumbersome as the number of buttons increases.
-        *   Redundancy: It duplicates the same data structure (`isPressed` boolean) for each button, potentially wasting OD space.
-        *   Maintainability: Adding or removing buttons requires modifying the OD structure and associated code.
-*   **Single OD Entry Differentiated by Node ID:**
-    *   **Description:** A single OD entry represents the `isPressed` state, and the Node ID is used to identify which button's state is being accessed. The master node would need a mechanism to specify the target Node ID when accessing this OD entry.
-    *   **Strengths:**
-        *   Elegance: This approach is more elegant from a data modeling perspective, reducing redundancy in the OD.
-        *   Scalability: It scales better as the number of buttons increases, as the OD structure remains constant.
-        *   CANopen Compliance: It aligns with the CANopen standard's intended use of Node ID for device identification.
-    *   **Weaknesses:**
-        *   CANopenNode Stack Limitation: The major drawback is the stated limitation of the CANopenNode stack. If the stack doesn't natively support accessing OD entries based on Node ID, this approach becomes significantly more complex.
-        *   Implementation Complexity: Implementing this approach might involve custom stack extensions, workarounds, or a deeper understanding of the CANopenNode stack's internals.
-        *   Potential Instability: Custom stack modifications can introduce instability or increase maintenance overhead.
-**3. Recommendations and Improvements**
-Given the CANopenNode stack limitations and the desire for a robust solution, the following recommendations are provided:
-*   **3.1 Initial Implementation: Separate OD Entries with Naming Convention**
-    *   Start with separate OD entries for each button, using a clear and consistent naming convention. This is the most pragmatic approach to get the system working reliably.
-    *   Example Naming Convention: `isPressed_Button1`, `isPressed_Button2`, `isPressed_Button3`, and so on.
-    *   Consider grouping related objects within a record in the OD for better organization. For example:
-```c
-// Pseudo-code for OD entry definition
-RECORD ButtonStateRecord {
-    BOOLEAN isPressed;
-    UINT8   buttonId;
-    // Other relevant button information
-}
-ButtonStateRecord Button1_State 0x6000; // Index 0x6000
-ButtonStateRecord Button2_State 0x6001; // Index 0x6001
-```
-*   **3.2 Investigate CANopenNode Stack Capabilities**
-    *   Thoroughly investigate the CANopenNode stack's documentation, examples, and community forums. There might be undocumented features or best practices for handling multiple similar devices.
-    *   Specifically, look for information on:
-        *   Dynamic object creation: Can OD entries be created programmatically during runtime?
-        *   Accessing OD entries based on Node ID: Are there any built-in mechanisms or hooks for filtering OD access by Node ID?
-        *   Object grouping or arrays: Can `isPressed` states be grouped into an array within the OD?
-*   **3.3 Dynamic Object Dictionary (Advanced)**
-    *   The retrieved documents mention dynamic object dictionaries. Check if CANopenNode supports dynamic object creation or similar mechanisms, even if it's a limited implementation. This could involve generating `isPressed` entries for each button programmatically during initialization.
-*   **3.4 PDO Mapping for Efficient Data Transmission**
-    *   Regardless of whether you choose a single or multiple OD entries, use PDO mapping to efficiently transmit the `isPressed` states to the master node.
-    *   Map the `isPressed` object(s) to PDOs for periodic or event-driven transmission. This avoids the overhead of SDOs for real-time data.
-    *   Configure the PDO communication parameters (e.g., transmission type, inhibit time) to optimize performance.
-*   **3.5 Alternative CANopen Stack (If Necessary)**
-    *   If the CANopenNode stack limitations are too restrictive and prevent you from implementing a scalable or efficient solution, consider evaluating alternative CANopen stacks that offer better support for accessing OD entries based on Node ID or dynamic object creation.
-**4. Trade-offs and Justification**
-*   **Separate OD Entries Trade-offs:** This approach favors simplicity and ease of implementation, especially given the stack limitations. However, it sacrifices scalability and elegance for a large number of buttons.
-*   **Single OD Entry Trade-offs:** This approach favors elegance, reduces redundancy, and aligns better with the CANopen standard's intended use of Node ID. However, it introduces complexity due to stack limitations and might require custom stack extensions or workarounds.
-*   **Recommendation:** Given the CANopenNode stack limitations, I recommend starting with **separate OD entries with a clear naming convention**. This is the most pragmatic approach to get the system working reliably. Invest time in researching the CANopenNode documentation and examples for any hidden features or best practices. If the number of buttons is expected to grow significantly, consider evaluating alternative CANopen stacks or contributing to the CANopenNode project to improve its support for more advanced OD management techniques.
-**5. Code Examples (Illustrative)**
-The following examples illustrate how to access the `isPressed` state using both SDOs and PDOs, assuming separate OD entries.
-*   **SDO Access (Master Node)**
-```c
-// Pseudo-code for reading isPressed state using SDO
-CANopenNode_Client client = new CANopenNode_Client(nodeId); // replace nodeId with Button's Node ID
-UNSIGNED8 isPressedValue = client.sdoRead(0x6000, 0x01); // Index 0x6000, Sub-index 0x01 (assuming isPressed is the first sub-index)
-if (isPressedValue == 1) {
-    // Button is pressed
-} else {
-    // Button is not pressed
-}
-```
-*   **PDO Mapping (Button Node)**
-```c
-// Pseudo-code for mapping isPressed to PDO
-// (Assuming PDO 1 is configured for transmission)
-map_object_to_pdo(PDO1, 0x6000, 0x01, isPressed); // Map isPressed (index 0x6000, sub-index 0x01) to PDO1
-```
-**6. Scalability Considerations**
-If the number of buttons is expected to grow significantly, the separate OD entries approach can become unwieldy. In this case, consider the following:
-*   **Alternative CANopen Stack:** Evaluate alternative stacks with better support for dynamic object creation or Node ID-based access.
-*   **Object Arrays:** If the CANopenNode stack supports it, group the `isPressed` states into an array within a single OD entry. The index into the array would correspond to the button number or Node ID.
-*   **Dynamic Object Dictionary:** Explore the possibility of dynamically creating OD entries for each button during initialization.
-**7. Specific References to the Architecture Diagram (Image 1)**
-*   The diagram shows the `isPressed` object within each button node's OD. The recommendation focuses on how to best organize and access these `isPressed` objects, considering the stack limitations.
-*   The CAN bus connection between the master and button nodes highlights the importance of efficient data transmission. PDO mapping should be used to minimize the overhead of transmitting the `isPressed` states.
-**8. Conclusion**
-Designing the CANopen OD for multiple identical nodes requires careful consideration of the CANopenNode stack limitations and the desired scalability. Starting with separate OD entries with a clear naming convention provides a pragmatic and reliable solution. However, continuous investigation of the stack's capabilities and exploration of alternative approaches (such as dynamic object creation or alternative CANopen stacks) will be crucial for achieving a more elegant and scalable design as the number of buttons increases. Efficient data transmission using PDO mapping is essential for real-time performance.
-```
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 ```text
 Here's a comprehensive guide to address the filter ordering issue in your Spring Security configuration.
 **Problem:**
@@ -8610,10 +7352,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Post_Link</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 # Jetpack Compose Recomposition Phases: A Comprehensive Technical Overview
@@ -9074,109 +7812,6 @@
 Recommendation: Approach this as an iterative process, systematically testing and refining your network configuration while maintaining a focus on security, performance, and scalability.
 --- END ENHANCED ANALYSIS ---</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# AWS EKS Single POD Multi-Tenancy Architecture with Dynamic RDS Routing
-## 1. Architecture Overview
-This solution implements a sophisticated multi-tenant architecture within a single Kubernetes pod, enabling dynamic database routing and efficient resource utilization for AWS EKS and RDS.
-## 2. Core Architecture Components
-### 2.1 Kubernetes Configuration
-- Single EKS pod serving multiple tenants
-- Dynamic database connection routing
-- Centralized application version management
-### 2.2 Database Routing Mechanism
-```python
-def route_database_connection(request):
-    # Extract tenant identifier from URL/headers
-    tenant_id = extract_tenant_identifier(request)
-    # Lookup database connection parameters
-    db_config = tenant_registry.get_database_config(tenant_id)
-    # Establish secure, dynamic database connection
-    connection = establish_database_connection(db_config)
-    return connection
-```
-## 3. Implementation Strategies
-### 3.1 URL-Based Routing
-- Use Kubernetes Ingress with sophisticated routing rules
-- Parse incoming request URLs to determine tenant context
-- Map URL patterns to specific RDS database instances
-### 3.2 Connection Management
-```yaml
-apiVersion: networking.k8s.io/v1
-kind: Ingress
-metadata:
-  name: tenant-routing
-spec:
-  rules:
-  - host: tenant1.example.com
-    http:
-      paths:
-      - path: /
-        backend:
-          service:
-            name: multi-tenant-service
-            port:
-              number: 80
-```
-### 3.3 Tenant Isolation Techniques
-- Implement connection pooling with tenant-specific pools
-- Use IAM roles for granular RDS access control
-- Encrypt all database connection strings
-- Implement strict authentication middleware
-## 4. Security Considerations
-- Use AWS Secrets Manager for database credential management
-- Implement fine-grained access controls
-- Enable network isolation using VPC configurations
-- Rotate database credentials automatically
-## 5. Performance Optimization
-- Implement connection pooling libraries
-- Cache tenant database mappings
-- Monitor connection establishment latency
-- Design for horizontal scalability
-## 6. Recommended Technology Stack
-- Kubernetes: AWS EKS
-- Database: Amazon RDS
-- Connection Management: HikariCP / c3p0
-- Routing: Istio / Ambassador
-- Security: AWS IAM, Secrets Manager
-## 7. Deployment Workflow
-1. Create centralized tenant registry
-2. Configure dynamic routing middleware
-3. Implement connection management service
-4. Set up monitoring and logging
-5. Perform comprehensive security testing
-## 8. Code Example: Tenant Database Router
-```python
-class TenantDatabaseRouter:
-    def __init__(self, tenant_registry):
-        self.tenant_registry = tenant_registry
-        self.connection_pool = ConnectionPoolManager()
-    def get_tenant_connection(self, tenant_id):
-        # Retrieve tenant-specific database configuration
-        db_config = self.tenant_registry.get_database_config(tenant_id)
-        # Obtain or create connection from pool
-        connection = self.connection_pool.get_connection(db_config)
-        return connection
-```
-## 9. Potential Challenges and Mitigations
-- Complex routing logic → Use service mesh technologies
-- Performance overhead → Implement efficient caching
-- Tenant isolation → Strict access controls and network policies
-## 10. Conclusion
-This architecture provides a flexible, scalable solution for multi-tenant applications, enabling efficient resource utilization, simplified deployment, and robust security in an AWS EKS environment.
-### Recommended Next Steps
-1. Develop proof-of-concept implementation
-2. Create comprehensive test suite
-3. Design incremental migration strategy
-4. Establish monitoring and alerting mechanisms
-By adopting this approach, organizations can achieve:
-- Simplified infrastructure management
-- Consistent application updates
-- Efficient multi-tenant database access
-- Enhanced scalability and security
---- END ENHANCED ANALYSIS ---</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -10625,234 +9260,6 @@
 ## Conclusion
 Precisely controlling filter execution in the Spring Security Filter Chain requires a strategic approach. By leveraging programmatic configuration, understanding filter positioning, and following best practices, you can seamlessly integrate custom filters while maintaining robust security architecture.
 The key is to treat the filter chain as a strategic architectural component, prioritizing security, performance, and maintainability.
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# Comprehensive Guide: Running and Debugging Micronaut Serverless Applications on Google Cloud Platform
-## 1. Architecture Overview
-The Micronaut serverless application architecture on Google Cloud Platform supports three primary function types:
-- HTTP Functions
-- Background Functions
-- Cloud Event Functions
-### Architecture Diagram Insights
-Referencing the provided architecture diagram, the solution demonstrates a modular, event-driven serverless approach with clear component interactions and flexible runtime configurations.
-## 2. Local Development and Debugging Strategies
-### Project Setup
-```bash
-# Create Micronaut project with GCP Function support
-mn create-app my-gcp-function --features google-cloud-function
-```
-### Gradle Configuration
-```groovy
-micronaut {
-    runtime "google_function"
-}
-dependencies {
-    implementation 'io.micronaut.gcp:micronaut-gcp-function'
-}
-```
-### Function Implementation Example
-```java
-@Singleton
-public class MyGoogleCloudFunction {
-    @HttpFunction
-    public HttpResponse handle(HttpRequest request) {
-        // Function logic implementation
-        return HttpResponse.ok("Serverless Function");
-    }
-}
-```
-## 3. Local Execution and Debugging
-### Google Cloud Functions Framework
-```bash
-# Install Functions Framework
-npm install -g @google-cloud/functions-framework
-# Run Micronaut function locally
-functions-framework --target=myFunction
-```
-### Remote Debugging Configuration
-```bash
-# Enable JVM remote debugging
-java -agentlib:jdwp=transport=dt_socket,server=y,suspend=n,address=*:5005 -jar function.jar
-```
-## 4. Key Architectural Considerations
-### Function Type Strategies
-1. **HTTP Functions**
-   - Direct web request handling
-   - RESTful API implementation
-   - Comprehensive input validation
-2. **Background Functions (Pub/Sub)**
-   - Asynchronous message processing
-   - Implement retry mechanisms
-   - Add dead-letter queue handling
-3. **Cloud Event Functions**
-   - Reactive storage event processing
-   - Granular event filtering
-   - High concurrency design
-## 5. Performance and Optimization
-### Runtime Optimization Techniques
-- Minimize cold start times
-- Use GraalVM native image compilation
-- Implement efficient dependency injection
-- Configure appropriate memory allocations
-### Debugging Best Practices
-- Utilize Google Cloud Functions Framework
-- Implement comprehensive logging
-- Use distributed tracing
-- Create detailed configuration templates
-- Develop robust local mocking strategies
-## 6. Deployment Strategies
-### Google Cloud Deployment
-```bash
-gcloud functions deploy myFunction \
-    --runtime java11 \
-    --trigger-http \
-    --entry-point com.yourcompany.MyGoogleCloudFunction
-```
-## 7. Security and Observability
-### Security Considerations
-- Implement fine-grained IAM roles
-- Use Google Cloud Secret Manager
-- Enable VPC Service Controls
-- Robust input validation
-- Secure credential management
-### Observability Enhancements
-- Integrate distributed tracing
-- Implement comprehensive logging
-- Add custom performance metrics
-- Configure Google Cloud Monitoring
-## 8. Advanced Configuration
-### Multi-Runtime Support
-- Switch between "google_function" and "netty" runtimes
-- Supports flexible local development and cloud deployment
-### Recommended Tools
-- Micronaut Framework
-- Google Cloud Functions Framework
-- GraalVM
-- Comprehensive testing libraries
-- Advanced monitoring tools
-## 9. Potential Challenges and Mitigations
-### Local Development Complexities
-- Challenge: Simulating cloud-native events
-- Solution: Extensive use of local emulators
-- Implement robust mocking strategies
-- Create consistent event handling logic
-## 10. Conclusion
-The Micronaut serverless architecture on Google Cloud Platform offers:
-- Flexible, event-driven function types
-- Zero server management
-- Automatic scaling
-- Pay-per-execution pricing
-- Cross-runtime compatibility
-By following these comprehensive guidelines, developers can effectively run, debug, and deploy Micronaut serverless applications with confidence and efficiency.
-Key Recommendations:
-- Embrace event-driven design
-- Prioritize observability
-- Design for scalability
-- Implement comprehensive testing
-- Continuously optimize performance
-The architecture diagram illustrates a modular, well-structured approach to serverless computing, providing a solid foundation for building robust, scalable applications.
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-# Preventing Cross-Domain Cookie Sharing: A Comprehensive Architecture Solution
-## Introduction
-The core challenge is to prevent cookie sharing between customer.app.com and admin.app.com while maintaining secure interactions with api.app.com. This response provides a detailed architectural approach to achieve robust domain isolation and secure authentication.
-## 1. Domain-Specific Cookie Isolation Strategy
-### Key Architectural Principles
-- Implement strict domain-specific cookie scoping
-- Prevent unauthorized cross-domain cookie access
-- Maintain secure, granular authentication mechanisms
-### Cookie Configuration Approach
-```javascript
-// Secure cookie setting with domain-specific scoping
-function setCookie(name, value, domain) {
-  document.cookie = `${name}=${value}; 
-    Domain=${domain}; 
-    Secure; 
-    SameSite=Strict; 
-    HttpOnly`;
-}
-// Example usage
-setCookie('session', 'user_token', '.customer.app.com');
-setCookie('admin_session', 'admin_token', '.admin.app.com');
-```
-### Domain Scoping Specifics
-- Customer Domain: Cookies scoped to `.customer.app.com`
-- Admin Domain: Cookies scoped to `.admin.app.com`
-- API Domain: Centralized authentication service with token-based access
-## 2. Secure Authentication Mechanism
-### JWT-Based Authentication
-- Implement stateless JSON Web Tokens (JWT)
-- Use short-lived, secure tokens for API interactions
-- Separate token strategies for customer and admin domains
-### Token Validation Middleware
-```javascript
-function validateToken(token, requiredRole) {
-  try {
-    const decoded = jwt.verify(token, API_SECRET, {
-      algorithms: ['RS256'],
-      maxAge: '1h' // Strict token lifetime
-    });
-    // Role-based access control
-    if (decoded.role !== requiredRole) {
-      throw new UnauthorizedError('Insufficient permissions');
-    }
-    return decoded;
-  } catch (error) {
-    logSecurityEvent(error);
-    throw error;
-  }
-}
-```
-## 3. API Interaction Security
-### Centralized Authentication Service
-- api.app.com serves as the primary authentication and authorization hub
-- Implements OAuth 2.0 / OpenID Connect protocols
-- Generates domain-specific, scoped access tokens
-### CORS and Security Configuration
-- Implement strict CORS policies
-- Use `SameSite=Strict` to prevent CSRF attacks
-- Enforce HTTPS across all domains
-- Configure precise origin restrictions
-## 4. Session Management Strategies
-### Isolation Techniques
-- Completely separate session stores for customer and admin domains
-- Different encryption keys for each domain
-- Implement robust logout mechanisms that invalidate tokens
-## 5. Security Configurations
-### Cookie Security Attributes
-- `Secure` flag: Ensures cookies are only transmitted over HTTPS
-- `HttpOnly`: Prevents client-side script access
-- `SameSite=Strict`: Blocks cross-site request forgery
-- Short token lifetimes with secure refresh mechanisms
-## 6. Potential Challenges and Mitigations
-### Implementation Considerations
-- Increased complexity in token management
-- Potential performance overhead
-- Requires sophisticated security expertise
-### Mitigation Strategies
-- Implement intelligent caching
-- Use asymmetric cryptographic methods
-- Develop comprehensive monitoring and logging
-- Regular security audits and penetration testing
-## Conclusion
-This architecture provides a robust solution to prevent cookie sharing between domains while maintaining secure, granular access control. By implementing domain-specific cookie scoping, stateless JWT authentication, and comprehensive security configurations, you create a resilient authentication ecosystem.
-### Recommended Next Steps
-1. Conduct a thorough security review
-2. Implement proposed authentication strategies
-3. Develop comprehensive testing protocols
-4. Establish continuous security monitoring
-Key Architectural Benefits:
-- Strict domain isolation
-- Secure, token-based authentication
-- Granular access control
-- Mitigation of cross-site attack vectors
-By carefully implementing these recommendations, you'll create a secure, scalable authentication architecture that protects against unauthorized access while providing a seamless user experience.
 --- END ENHANCED ANALYSIS ---</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -11125,44 +9532,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-```
-Both data normalization (using `transforms.Normalize` in `torchvision.transforms`) and batch normalization (integrated into ResNet50) serve distinct but complementary purposes in training deep neural networks. It is generally beneficial to use both.
-**Q1) Do I need both normalizations or is one of these normalization is more than enough?**
-You generally need both normalizations. They address different stages of the learning process and contribute to overall performance and stability.
-**Q2) What will be the reason for choosing that normalization approach?**
-Here's a detailed breakdown of each normalization technique and the reasons for using them:
-*   **Data Normalization (using `transforms.Normalize`)**
-    *   **Purpose:** This normalization is applied as a preprocessing step to the input images *before* they are fed into the ResNet50 model. It scales the pixel values of the images to a standard range, typically with a mean close to 0 and a standard deviation close to 1 for each color channel.
-    *   **Reasoning:**
-        *   *Numerical Stability:* Neural networks are sensitive to the scale of the input data. Large pixel values can lead to large activations, which can cause instability during training (e.g., exploding gradients). Normalizing the input data prevents this.
-        *   *Improved Convergence:* Normalizing the input data can significantly speed up the convergence of the training process. When features are on different scales, the optimization algorithm may take longer to find the optimal weights.
-        *   *Feature Scaling:* It ensures that all features (pixel values in different color channels) contribute equally to the learning process. Without normalization, features with larger values might dominate the loss function.
-    *   **Impact of Removal:** Removing data normalization can lead to:
-        *   Slower convergence
-        *   Training instability (e.g., exploding gradients)
-        *   Suboptimal performance
-    *   **Values Used:** The code uses `transforms.Normalize([0.554, 0.450, 0.343],[0.231, 0.241, 0.241])`. These values represent the mean and standard deviation calculated across the *entire* training dataset for each color channel (Red, Green, Blue).
-        *   *Importance of Dataset-Specific Values:* Using dataset-specific mean and standard deviation is crucial. It customizes the normalization to the specific characteristics of your image data. Using generic values (e.g., `[0.5, 0.5, 0.5]` and `[0.5, 0.5, 0.5]`) might not be as effective, especially if your dataset has a significantly different distribution of pixel values. If your dataset has images with very different color distributions, the generic values would not correctly normalize the images.
-*   **Batch Normalization (within ResNet50)**
-    *   **Purpose:** Batch normalization is a technique applied *within* the layers of the ResNet50 architecture. It normalizes the activations of each layer within each mini-batch during training.
-    *   **Reasoning:**
-        *   *Internal Covariate Shift Reduction:* Batch normalization reduces the "internal covariate shift," which is the change in the distribution of network activations due to changes in the network's parameters during training. By normalizing the activations, batch normalization makes the training process more stable and less sensitive to parameter changes.
-        *   *Higher Learning Rates:* Batch normalization allows for the use of higher learning rates without the risk of divergence. This can significantly speed up training.
-        *   *Regularization Effect:* Batch normalization has a slight regularization effect, which can improve generalization performance (i.e., the model's ability to perform well on unseen data).
-    *   **Implementation in ResNet50 (Image 1):** As shown in the provided diagram, ResNet50 uses batch normalization extensively throughout its architecture. You can see `BatchNorm` layers after most convolutional layers (`Conv2d`). These `BatchNorm` layers normalize the output of the preceding convolutional layer before it is passed to the next layer or activation function (like ReLU).
-    *   **Impact of Removal:** Removing batch normalization (which would require modifying the ResNet50 architecture, *not recommended*) would likely lead to:
-        *   Slower convergence
-        *   Training instability
-        *   Significantly reduced performance
-        *   Difficulty in training deep networks
-**In Summary:**
-Data normalization prepares the input data, while batch normalization stabilizes the learning process *within* the network. They address different aspects of the training process and are often used together for optimal performance. Data normalization ensures numerical stability and feature scaling of the inputs, whereas Batch Normalization reduces internal covariate shift, allowing for higher learning rates and faster convergence and also has a slight regularization effect, improving the generalization of the model. Removing either type of normalization is generally not recommended, as it can negatively impact training speed, stability, and final performance. The dataset-specific values in the data normalization are essential for adapting the normalization to your dataset's characteristics.
-```
---- END ENHANCED ANALYSIS ---</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 **Problem:** You are encountering issues consuming events from a specific topic on Kafka broker two while successfully consuming events from Kafka broker one using Spring Cloud Stream.
 **Root Cause Analysis:** The problem likely stems from misconfiguration in one or more of the following areas:
 *   **Binder Configuration:** Incorrect broker addresses, security settings (SASL/SSL), or missing binder definitions.
@@ -11330,12 +9699,1919 @@
     <t>enhanced_gemini_response</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t># Optimized Kafka Event Processing for Live Collaborative Forms
+## Problem Context
+The architecture involves a live collaborative form system with the following key characteristics:
+- 5,000 active forms simultaneously
+- Peak load of 10,000 events per second
+- Complex event processing with:
+  - Small events (150ms processing time)
+  - Large events (7s processing time)
+- Requirement for non-blocking processing across different forms
+## Proposed Hybrid Solution: Adaptive Kafka Processing Architecture
+### Key Design Principles
+1. **Efficient Partition Management**
+2. **Dynamic Scaling**
+3. **Stateful Processing**
+4. **Cost-Effective Infrastructure**
+### Architecture Overview
+```
+[Web Socket Server] 
+         ↓
+[Kafka "form data" Topic]
+         ↓
+[Streaming Enrichment Layer]
+         ↓
+[Kafka "enriched form data" Topic]
+         ↓
+[Redis Pub/Sub]
+         ↓
+[Web Socket Servers]
+```
+### Recommended Implementation Strategy
+#### 1. Adaptive Partitioning Strategy
+Instead of dedicating a partition per form or using a fixed partition-to-thread mapping, implement a dynamic partitioning approach:
+```java
+class AdaptiveFormProcessor {
+    private static final int MAX_FORMS_PER_PARTITION = 8;
+    private static final int MAX_PROCESSING_THREADS = 16;
+    public void processFormEvents(List&lt;Form&gt; forms) {
+        // Dynamically distribute forms across partitions
+        Map&lt;Integer, List&lt;Form&gt;&gt; partitionedForms = distributeFormsAcrossPartitions(forms);
+        // Create processing streams with adaptive parallelism
+        StreamsBuilder streamsBuilder = new StreamsBuilder();
+        KStream&lt;String, FormEvent&gt; formEventStream = streamsBuilder.stream("form-data-topic");
+        formEventStream
+            .groupByKey()
+            .reduce((aggregatedEvent, newEvent) -&gt; {
+                // Stateful processing logic
+                return processFormEvent(aggregatedEvent, newEvent);
+            })
+            .toStream()
+            .to("enriched-form-data-topic");
+    }
+    private Map&lt;Integer, List&lt;Form&gt;&gt; distributeFormsAcrossPartitions(List&lt;Form&gt; forms) {
+        // Intelligent distribution algorithm
+        return forms.stream()
+            .collect(Collectors.groupingBy(
+                form -&gt; calculateOptimalPartition(form),
+                Collectors.toList()
+            ));
+    }
+}
+```
+#### 2. Event Processing Optimization
+Key optimizations to handle different event types:
+- **Small Events (150ms)**
+  - Process immediately using lightweight stream processing
+  - Minimal computational overhead
+  - Quick state updates
+- **Large Events (7s)**
+  - Implement background processing with progress tracking
+  - Use separate processing pipeline
+  - Implement cancellable/resumable processing
+#### 3. Stateful Processing Enhancements
+Replace direct database lookups with:
+- Kafka Streams State Stores
+- Materialized views
+- Cached graph traversal results
+```java
+// Example of stateful stream processing with memoization
+KStream&lt;String, FormEvent&gt; formEventStream = ...;
+formEventStream
+    .transform(() -&gt; new Transformer&lt;String, FormEvent, KeyValue&lt;String, FormEvent&gt;&gt;() {
+        private KeyValueStore&lt;String, ProcessedNodeResult&gt; nodeResultCache;
+        @Override
+        public void init(ProcessorContext context) {
+            nodeResultCache = (KeyValueStore&lt;String, ProcessedNodeResult&gt;) 
+                context.getStateStore("node-result-cache");
+        }
+        @Override
+        public KeyValue&lt;String, FormEvent&gt; transform(String key, FormEvent value) {
+            // Intelligent caching of graph traversal results
+            ProcessedNodeResult cachedResult = nodeResultCache.get(key);
+            if (cachedResult != null &amp;&amp; !cachedResult.isStale()) {
+                return KeyValue.pair(key, enrichEventFromCache(value, cachedResult));
+            }
+            // Perform full graph traversal and caching
+            ProcessedNodeResult newResult = performGraphTraversal(value);
+            nodeResultCache.put(key, newResult);
+            return KeyValue.pair(key, enrichEventWithNewResult(value, newResult));
+        }
+    }, "node-result-cache-store");
+```
+### Infrastructure Recommendations
+1. **Scaling Approach**
+   - Start with 2-4 instances
+   - Use Kubernetes for dynamic scaling
+   - Implement horizontal pod autoscaling based on event load
+2. **Cost-Effective Design**
+   - Leverage spot instances for processing nodes
+   - Implement auto-scaling with minimum overhead
+   - Use cloud-managed Kafka services (e.g., Confluent Cloud, AWS MSK)
+### Performance Considerations
+- **Partition Count**: 50-100 partitions (vs. 5000)
+- **Processing Threads**: 8-16 per instance
+- **Estimated Infrastructure**: 4-8 instances instead of 600
+### Monitoring and Observability
+- Implement distributed tracing
+- Use Prometheus/Grafana for metrics
+- Track:
+  - Event processing latency
+  - Partition load
+  - Cache hit rates
+  - Graph traversal performance
+## Conclusion
+The proposed solution offers:
+- Non-blocking event processing
+- Efficient resource utilization
+- Scalable architecture
+- Cost-effective implementation
+By adopting an adaptive, intelligent partitioning strategy with Kafka Streams, you can achieve high performance without excessive infrastructure costs.
+### Recommended Next Steps
+1. Prototype the solution
+2. Conduct thorough performance testing
+3. Validate graph traversal optimization
+4. Implement incremental rollout
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Comprehensive Guide to Code Verifier Retrieval in Keycloak Angular Authentication
+## Understanding the Code Verifier Challenge
+The core challenge in Keycloak Angular authentication is retrieving the PKCE (Proof Key for Code Exchange) code verifier, which is critical for secure token exchange.
+### Key Implementation Strategy
+```typescript
+@Injectable({
+  providedIn: 'root'
+})
+export class SecurePKCEService {
+  private codeVerifier: string | null = null;
+  constructor(private keycloak: KeycloakService) {}
+  // Explicit Code Verifier Generation
+  generateCodeVerifier(): string {
+    // Use cryptographically secure method
+    const verifier = Array(64)
+      .fill(0)
+      .map(() =&gt; Math.random().toString(36).charAt(2))
+      .join('');
+    this.codeVerifier = verifier;
+    return verifier;
+  }
+  // Retrieve Code Verifier Method
+  getCodeVerifier(): string | null {
+    if (!this.codeVerifier) {
+      console.warn('Code verifier not generated. Call generateCodeVerifier() first.');
+    }
+    return this.codeVerifier;
+  }
+  // Keycloak Login with PKCE
+  initiateSecureLogin() {
+    const codeVerifier = this.generateCodeVerifier();
+    // Optional: Store in secure storage for backend retrieval
+    localStorage.setItem('pkce_code_verifier', codeVerifier);
+    this.keycloak.login({
+      pkceMethod: 'S256',
+      // Additional login configuration
+    });
+  }
+}
+```
+## Architectural Approach to Code Verifier Management
+### 1. Code Verifier Generation
+- Use cryptographically secure random generation
+- Create a 43-128 character URL-safe string
+- Ensure uniqueness for each authentication attempt
+### 2. Storage and Retrieval Mechanisms
+```typescript
+@Component({...})
+export class AuthComponent {
+  constructor(
+    private pkceService: SecurePKCEService,
+    private authService: AuthService
+  ) {}
+  login() {
+    // Generate code verifier before login
+    const codeVerifier = this.pkceService.generateCodeVerifier();
+    // Initiate login with PKCE
+    this.pkceService.initiateSecureLogin();
+    // Retrieve verifier after login if needed
+    const retrievedVerifier = this.pkceService.getCodeVerifier();
+  }
+}
+```
+### 3. Backend Token Exchange
+```java
+@RestController
+public class TokenController {
+    @PostMapping("/token")
+    public ResponseEntity&lt;TokenResponse&gt; exchangeToken(
+        @RequestParam("code") String authorizationCode,
+        @RequestHeader("X-PKCE-Verifier") String codeVerifier
+    ) {
+        // Validate and exchange token
+        // Use code verifier in token request
+    }
+}
+```
+## Best Practices and Security Considerations
+1. Never expose code verifier in client-side logs
+2. Use secure storage mechanisms
+3. Generate a new verifier for each authentication attempt
+4. Implement server-side validation
+5. Use HTTPS for all authentication communications
+## Potential Challenges and Solutions
+### Challenge: Keycloak Doesn't Expose Code Verifier
+**Solution:** Implement manual generation and tracking
+### Challenge: Secure Storage
+**Solution:** Use encrypted storage or HttpOnly cookies
+## Error Handling
+```typescript
+export class PKCEErrorHandler {
+  handleVerifierError(error: Error) {
+    // Implement centralized error management
+    // Log security events
+    // Provide user-friendly error messages
+  }
+}
+```
+## Technology Recommendations
+- Keycloak 25.0.x
+- Angular 16+
+- Use `@angular/cli`
+- TypeScript with strict typing
+- Cryptographically secure libraries
+## Performance and Scalability
+- Minimal overhead in code verifier generation
+- Stateless authentication flow
+- Easy to integrate with existing Angular applications
+## Conclusion
+By implementing this approach, you create a robust, secure method for retrieving and managing the code verifier in a Keycloak Angular authentication flow.
+The key is explicit management: generate, store, and retrieve the code verifier with clear, secure methods that integrate seamlessly with Keycloak's authentication mechanisms.
+### Recommended Next Steps
+1. Implement the `SecurePKCEService`
+2. Configure Keycloak with S256 PKCE method
+3. Test thoroughly in a staging environment
+4. Monitor and log authentication events
+This solution provides a comprehensive, secure approach to code verifier retrieval in Keycloak Angular authentication, addressing the core challenge while maintaining high security standards.
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Comprehensive OIDC Authentication Implementation with Keycloak and API Gateway
+## 1. Architecture Overview
+The proposed architecture implements a robust OpenID Connect (OIDC) Authentication Flow using:
+- Frontend: Vue.js Application
+- Identity Provider: Keycloak SSO
+- Authentication Broker: API Gateway (Golang)
+- Backend: Multiple Microservices
+## 2. Authentication Flow Architecture
+### 2.1 Core Authentication Flow
+The implementation follows the standard OIDC Authorization Code Flow:
+1. User Initiates Login
+   - Frontend redirects to Keycloak authentication endpoint
+   - Includes critical parameters:
+     * `client_id`
+     * `redirect_uri`
+     * `response_type`
+     * `scope`
+     * `state` (CSRF protection)
+2. User Authentication
+   - Keycloak validates user credentials
+   - Generates short-lived authorization code
+3. Token Exchange
+   - Authorization code exchanged for:
+     * ID Token (JWT with user claims)
+     * Access Token
+     * Refresh Token
+### 2.2 Token Management Strategy
+#### Secure Token Storage (Golang Implementation)
+```go
+type UserSession struct {
+    AccessToken   string    // Encrypted access token
+    RefreshToken  string    // Secure refresh token
+    ExpiresAt     time.Time // Token expiration tracking
+    UserID        string    // Unique user identifier
+}
+```
+#### Token Refresh Mechanism
+```go
+func refreshTokenIfExpired(session *UserSession) error {
+    if time.Now().After(session.ExpiresAt) {
+        newTokens, err := keycloakClient.RefreshTokens(session.RefreshToken)
+        if err != nil {
+            return AuthenticationError
+        }
+        // Securely update session tokens
+        session.AccessToken = newTokens.AccessToken
+        session.ExpiresAt = calculateExpirationTime(newTokens)
+    }
+    return nil
+}
+```
+## 3. Security Configurations
+### 3.1 Cookie Security Parameters
+```go
+cookieOptions := sessions.Options{
+    HttpOnly: true,     // Prevent client-side script access
+    Secure:   true,     // HTTPS only
+    SameSite: http.SameSiteStrictMode,  // CSRF protection
+    MaxAge:   3600,     // 1-hour session
+}
+```
+### 3.2 Authentication Middleware
+```go
+type AuthMiddleware struct {
+    keycloakClient *oidc.Client
+    sessionStore   SessionStore
+}
+func (am *AuthMiddleware) Validate(next http.HandlerFunc) http.HandlerFunc {
+    return func(w http.ResponseWriter, r *http.Request) {
+        // 1. Validate token signature
+        // 2. Check token expiration
+        // 3. Verify issuer and audience
+        // 4. Introspect token claims
+        // 5. Allow or deny request
+    }
+}
+```
+## 4. Advanced Security Considerations
+### 4.1 Threat Mitigation
+- Protect against:
+  * Man-in-the-middle attacks
+  * Token replay attacks
+  * Cross-Site Request Forgery (CSRF)
+- Implement Multi-Factor Authentication (MFA)
+### 4.2 Performance Optimizations
+- Distributed session storage (Redis)
+- Token caching mechanism
+- Stateless authentication middleware
+- Circuit breakers for external auth calls
+## 5. Recommended Technology Stack
+- Identity Provider: Keycloak
+- Backend Language: Golang
+- OIDC Libraries: 
+  * `go-oidc`
+  * `coreos/go-oidc`
+- Frontend: Vue.js
+- Session Store: Redis
+- Monitoring: Prometheus, ELK Stack
+## 6. Monitoring and Observability
+- Comprehensive authentication event logging
+- Track login attempts and failures
+- Security audit logs
+- Token refresh success rate monitoring
+## 7. Conclusion and Best Practices
+This architecture provides:
+✅ Secure, standards-compliant authentication
+✅ Centralized identity management
+✅ Scalable microservices architecture
+✅ Robust token handling
+### Recommended Next Steps
+1. Implement rigorous token validation middleware
+2. Create comprehensive error handling
+3. Design secure token refresh mechanism
+4. Conduct thorough security testing
+5. Set up robust monitoring infrastructure
+By following these guidelines, you'll create a highly secure, performant OIDC authentication solution that meets enterprise-grade security requirements while maintaining flexibility and scalability.
+This comprehensive guide provides a deep technical dive into implementing OIDC authentication with Keycloak, API Gateway, and microservices, covering architectural design, security considerations, and practical implementation strategies.
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Why PKCE `code_verifier` is Calculated Server-Side in BFF Pattern: A Security Architecture Perspective
+## Core Security Rationale
+The server-side calculation of `code_verifier` in the Backend for Frontend (BFF) pattern is a critical security design choice that addresses fundamental vulnerabilities in browser-based OAuth 2.0 authentication flows. This approach provides multiple layers of protection against potential token interception and replay attacks.
+### 1. Security Threat Mitigation
+#### Prevent Authorization Code Interception
+By generating and managing the `code_verifier` server-side, the architecture:
+- Eliminates client-side manipulation risks
+- Ensures the `code_verifier` remains confidential
+- Creates a secure, tamper-resistant token exchange mechanism
+#### Robust Protection Mechanism
+- The server maintains full control over cryptographic challenge generation
+- Prevents potential client-side attack vectors
+- Implements a strict, verifiable token exchange process
+### 2. Technical Implementation Strategy
+```javascript
+// Server-Side PKCE Generation Example
+function generateSecurePKCEParameters() {
+  return {
+    codeVerifier: crypto.randomBytes(64).toString('base64url'),
+    codeChallenge: crypto.createHash('sha256')
+      .update(generatedCodeVerifier)
+      .digest('base64url'),
+    codeChallengeMethod: 'S256'
+  };
+}
+```
+### 3. Key Security Benefits
+#### Enhanced Authentication Integrity
+- Cryptographically secure `code_verifier` generation
+- Prevention of unauthorized token exchanges
+- Strict validation during authorization code redemption
+#### Session Management
+- Utilize secure, short-lived server-side sessions
+- Store `code_verifier` in HttpOnly, encrypted session storage
+- Implement temporal binding between authorization code and verifier
+### 4. Architectural Pattern Advantages
+The BFF pattern with server-side `code_verifier` calculation offers:
+- Centralized authentication logic
+- Reduced client-side security exposure
+- Comprehensive defense against OAuth 2.0 vulnerabilities
+### 5. Compliance and Best Practices
+This approach aligns with:
+- OAuth 2.0 security specifications
+- OWASP web application security guidelines
+- Modern authentication framework recommendations
+### Conclusion
+Server-side `code_verifier` calculation is not merely a technical implementation detail but a sophisticated security strategy. By maintaining cryptographic challenge generation and validation within the server's domain, the BFF pattern creates a robust, resilient authentication mechanism that protects against emerging web security threats.
+#### Recommendation
+Developers should consistently implement server-side PKCE parameter management, prioritizing security through controlled, centralized authentication processes.
+Key Takeaway: Server-side `code_verifier` calculation transforms a potential vulnerability into a robust security mechanism, making it an essential architectural pattern for modern web applications.
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Event Manager Performance Optimization in Qt/C++ Modular Plugin Architecture
+## 1. Performance Optimization Strategy Overview
+### Key Performance Challenges
+In a Qt/C++ modular plugin architecture, event managers often encounter performance bottlenecks due to:
+- Synchronization overhead
+- Dynamic method invocation complexity
+- Thread contention during high-frequency events
+### Proposed Optimization Framework
+Our optimization strategy will focus on:
+1. Lock-Free Event Dispatching
+2. Intelligent Event Prioritization
+3. Efficient Memory Management
+4. Minimized Synchronization Overhead
+## 2. Architectural Optimization Techniques
+### A. Lock-Free Event Queue Implementation
+```cpp
+template &lt;typename EventType&gt;
+class LockFreeEventQueue {
+private:
+    std::atomic&lt;EventNode&lt;EventType&gt;*&gt; head;
+    std::atomic&lt;EventNode&lt;EventType&gt;*&gt; tail;
+    bool enqueue(EventType event) {
+        auto newNode = std::make_unique&lt;EventNode&lt;EventType&gt;&gt;(event);
+        EventNode&lt;EventType&gt;* oldTail;
+        do {
+            oldTail = tail.load(std::memory_order_relaxed);
+        } while (!tail.compare_exchange_weak(oldTail, newNode.get(), 
+                 std::memory_order_release, 
+                 std::memory_order_relaxed));
+        return true;
+    }
+};
+```
+#### Performance Benefits:
+- O(1) enqueue/dequeue operations
+- Eliminated mutex contention
+- Minimal cache coherency overhead
+### B. Event Prioritization Mechanism
+```cpp
+enum class EventPriority {
+    CRITICAL,   // Immediate processing
+    HIGH,       // Low-latency events
+    MEDIUM,     // Standard processing
+    LOW         // Deferrable background events
+};
+class PrioritizedEventManager {
+public:
+    void triggerEvent(const QString&amp; eventName, 
+                      const QVariant&amp; payload, 
+                      EventPriority priority = EventPriority::MEDIUM) {
+        switch(priority) {
+            case EventPriority::CRITICAL:
+                processImmediately(eventName, payload);
+                break;
+            case EventPriority::HIGH:
+                queueHighPriorityEvent(eventName, payload);
+                break;
+            // Additional priority handling
+        }
+    }
+};
+```
+### C. Intelligent Dispatch Optimization
+```cpp
+class EnhancedEventDispatcher {
+private:
+    std::unordered_map&lt;QString, std::vector&lt;EventHandler&gt;&gt; eventHandlers;
+    LockFreeEventQueue&lt;Event&gt; eventQueue;
+    void processEvents() {
+        // Batch processing of events
+        std::vector&lt;Event&gt; batchedEvents;
+        while (!eventQueue.empty() &amp;&amp; batchedEvents.size() &lt; MAX_BATCH_SIZE) {
+            batchedEvents.push_back(eventQueue.dequeue());
+        }
+        // Parallel processing of batched events
+        QtConcurrent::map(batchedEvents, [this](const Event&amp; event) {
+            dispatchEvent(event);
+        });
+    }
+};
+```
+## 3. Advanced Optimization Techniques
+### Performance Optimization Patterns
+1. Memory Pooling
+   - Pre-allocate event objects
+   - Reduce dynamic memory allocation overhead
+   - Implement custom memory pools
+2. Event Coalescing
+   - Detect and merge similar high-frequency events
+   - Reduce unnecessary processing
+   - Implement intelligent event filtering
+3. Adaptive Dispatching
+   - Dynamic thread pool scaling
+   - Adjust processing based on system load
+   - Implement backpressure mechanisms
+## 4. Architectural Trade-offs
+### Performance vs. Modularity Considerations
+- Preserve plugin architecture flexibility
+- Maintain loose coupling between components
+- Balance optimization with system extensibility
+## 5. Implementation Roadmap
+1. Profiling and Baseline Measurement
+   - Use Qt Profiler and performance analysis tools
+   - Identify specific bottleneck locations
+   - Establish performance benchmarks
+2. Incremental Optimization
+   - Replace mutex-based synchronization
+   - Implement lock-free data structures
+   - Introduce priority-based event queues
+3. Continuous Validation
+   - Benchmark each optimization stage
+   - Validate system responsiveness
+   - Ensure minimal performance regression
+## 6. Technological Considerations
+- Leverage modern C++17/20 concurrency primitives
+- Utilize Qt's advanced signal-slot mechanisms
+- Consider platform-specific optimization techniques
+## Conclusion
+The proposed architecture delivers:
+- Dramatically reduced event processing latency
+- Minimized synchronization overhead
+- Improved system responsiveness
+- Maintained architectural modularity
+### Limitations and Cautions
+- Requires deep concurrent programming expertise
+- Complex implementation
+- Extensive testing mandatory
+- Platform-specific nuances possible
+### Recommended Next Actions
+1. Incremental implementation
+2. Rigorous performance validation
+3. Continuous performance monitoring
+By systematically addressing event management challenges, this approach transforms the Event Manager into a high-performance, scalable system capable of handling complex, event-driven scenarios in modular Qt/C++ architectures.
+The implementation focuses on practical, implementable strategies that directly address performance bottlenecks while maintaining the core principles of modularity and flexibility.
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Investigating Repeated Cached Lambda@Edge Requests in CloudFront Architecture
+## Problem Overview
+The architecture is experiencing an unexpected behavior where multiple origin requests are occurring for the same day, despite an anticipated single request per day per region. This suggests potential inconsistencies in Lambda@Edge function execution and CloudFront caching mechanisms.
+## Root Cause Analysis
+### Caching Mechanism Complexities
+1. Cache Key Generation Inconsistency
+   - Lambda@Edge functions might be generating non-deterministic cache keys
+   - Subtle variations in execution context across different edge locations
+   - Potential differences in:
+     * Request parsing
+     * Timestamp generation
+     * Environment-specific parameters
+### Lambda@Edge Execution Characteristics
+```python
+def lambda_handler(event, context):
+    # Potential source of non-determinism
+    # Avoid using context-dependent or time-variant data for cache key
+    cache_key = generate_consistent_identifier(event)
+    return {
+        'cache_strategy': 'normalized',
+        'consistent_key': cache_key
+    }
+```
+## Diagnostic Approach
+### 1. Caching Behavior Investigation
+- Examine X-Cache headers in CloudFront responses
+- Trace Lambda@Edge execution logs
+- Validate cache key generation process
+### 2. Recommended Instrumentation
+```python
+def enhanced_lambda_handler(event, context):
+    # Add detailed logging for cache behavior
+    logging.info({
+        'request_id': context.aws_request_id,
+        'function_version': context.function_version,
+        'remaining_time_ms': context.get_remaining_time_in_millis(),
+        'event_details': normalize_event_details(event)
+    })
+```
+## Key Architectural Recommendations
+### 1. Cache Key Normalization
+- Implement strict, deterministic cache key generation
+- Remove time-variant elements from key computation
+- Use consistent, predictable identifiers
+### 2. Caching Configuration Optimization
+```json
+{
+    "CloudFrontDistribution": {
+        "CacheBehavior": {
+            "MinTTL": 0,
+            "MaxTTL": 86400,  // 24-hour maximum cache
+            "DefaultTTL": 0,
+            "CacheKeyNormalization": "strict"
+        }
+    }
+}
+```
+### 3. Lambda@Edge Function Improvements
+- Use function versioning
+- Implement idempotent request handling
+- Add comprehensive error tracking and logging
+## Potential Implementation Strategy
+1. Refactor Lambda@Edge to generate consistent cache keys
+2. Add detailed CloudWatch logging
+3. Implement function versioning
+4. Use CloudFront cache key policies
+## Performance and Cost Considerations
+- Reduced origin requests
+- Lower latency
+- Minimized Lambda@Edge execution costs
+- Improved cache hit ratio
+## Monitoring and Validation
+- Use CloudWatch Metrics
+- Enable detailed CloudFront access logs
+- Implement custom CloudWatch dashboards for cache performance
+## Code Example: Improved Cache Key Generation
+```python
+def generate_consistent_cache_key(event):
+    # Normalize input, remove time-variant elements
+    normalized_key = hashlib.md5(
+        json.dumps({
+            'resource_path': event['path'],
+            'normalized_params': sorted_dict(event.get('queryStringParameters', {}))
+        }, sort_keys=True).encode()
+    ).hexdigest()
+    return normalized_key
+```
+## Conclusion
+By implementing these architectural modifications, you can:
+- Reduce unnecessary origin requests
+- Improve caching consistency
+- Optimize Lambda@Edge function performance
+- Enhance overall CDN efficiency
+The key is creating a deterministic, normalized approach to cache key generation and request handling.
+Recommended Next Steps:
+1. Implement proposed cache key normalization
+2. Add comprehensive logging
+3. Conduct thorough testing in staging environment
+4. Gradually roll out changes with careful monitoring
+---
+Would you like me to elaborate on any specific aspect of the recommended architecture or investigation approach?
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Comprehensive Performance Testing Strategy for Complex Microservices Architecture
+## 1. Architecture Performance Testing Overview
+The presented microservices architecture features a sophisticated message processing ecosystem with three primary services (A, B, C), utilizing Kafka and HornetQ for message routing, presenting unique performance testing challenges.
+### Key Architectural Characteristics
+- Multiple Service Endpoints
+- Complex Message Routing
+- External System Integration
+- Throughput Limitations (10 messages/second)
+## 2. Performance Testing Objectives
+1. Identify System Bottlenecks
+2. Determine Maximum Sustainable Throughput
+3. Validate Inter-Service Communication Performance
+4. Assess Message Queue Efficiency
+## 3. Detailed Performance Testing Approach
+### A. Endpoint Performance Validation
+#### Service A Performance Testing
+- Endpoints: POST /shipments, PATCH /shipments
+- Testing Focus:
+  * Concurrent Request Handling
+  * Response Time Measurement
+  * Payload Variation Impact
+  * Error Rate Analysis
+#### Service B Performance Testing
+- Endpoints: POST /shipments, PATCH /shipments, PATCH /inventory, PATCH /tracking
+- Extended Testing Scenarios:
+  * Complex Interaction Simulation
+  * Resource Consumption Tracking
+  * Concurrency Management
+  * Error Propagation Analysis
+### B. Message Queue Performance Evaluation
+#### Kafka Topic X Assessment
+- Performance Metrics:
+  * Message Processing Rate
+  * Queue Depth Management
+  * Latency Between Service Interactions
+  * Message Routing Efficiency
+#### HornetQ Integration Testing
+- Critical Evaluation Areas:
+  * Message Delivery Reliability
+  * Throughput Limitations
+  * Error Handling Mechanisms
+  * Queue Backpressure Management
+## 4. Load Testing Strategy
+### Phase 1: Baseline Performance Establishment
+- Individual Service Endpoint Performance Measurement
+- Initial Throughput Determination
+- Baseline Capability Identification
+### Phase 2: Incremental Load Testing
+- Gradual Concurrent User Increase
+- Peak and Stress Condition Simulation
+- System Response and Degradation Point Analysis
+### Phase 3: Stress Testing
+- External System Limit Exceedance (&gt;10 messages/second)
+- Queue Overflow Scenario Validation
+- System Resilience and Error Handling Assessment
+## 5. Performance Metrics Tracking
+### Key Performance Indicators (KPIs)
+1. Response Times
+2. Throughput (requests/second)
+3. Error Rates
+4. Queue Processing Latency
+5. Resource Utilization
+   - CPU Consumption
+   - Memory Usage
+   - Network Bandwidth
+6. Service Interaction Efficiency
+## 6. Recommended Toolchain
+### Performance Testing Ecosystem
+- Load Generation: k6
+- Metrics Collection: Prometheus
+- Visualization: Grafana
+- Distributed Tracing: Jaeger/Zipkin
+## 7. Advanced Testing Considerations
+- Realistic Traffic Pattern Simulation
+- Multi-Payload Size Testing
+- Service Interdependency Validation
+- Horizontal Scalability Assessment
+## 8. Performance Optimization Strategies
+1. Implement Intelligent Circuit Breakers
+2. Adaptive Rate Limiting
+3. Message Serialization Optimization
+4. Message Compression Techniques
+5. Efficient Caching Mechanisms
+## 9. Continuous Performance Validation
+- CI/CD Performance Test Integration
+- Performance Regression Detection
+- Automated Performance Monitoring
+## Conclusion
+This comprehensive performance testing strategy provides a systematic, multi-dimensional approach to validating the microservices architecture's performance characteristics. By employing incremental testing, detailed metrics tracking, and continuous optimization, teams can ensure robust, scalable, and high-performing system design.
+### Key Differentiators
+- Layered Testing Methodology
+- Realistic Scenario Simulation
+- Comprehensive Metrics Tracking
+- Actionable Optimization Recommendations
+The strategy is meticulously crafted to address the specific architectural nuances of the presented microservices ecosystem, offering a pragmatic, implementable framework for performance validation and improvement.
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# UML Class Diagram for a Simple Unity System: Comprehensive Architecture Design
+## Overview
+This UML Class Diagram represents a flexible, generic information management system for Unity, focusing on type-safe component interactions and modular design.
+## Key Design Patterns
+1. Generic Interface Pattern
+2. Dependency Injection
+3. Composition over Inheritance
+## Class Diagram Structure
+### Interfaces
+```
+&lt;&lt;interface&gt;&gt;
+IInfoGetter&lt;T&gt;
+--
++ TryGet(out T value): bool
+```
+### Abstract/Base Classes
+```
+&lt;&lt;abstract&gt;&gt;
+BaseInfoComponent&lt;T&gt;
+--
+- _infoData: T
++ GetInfo(): T
++ UpdateInfo(newData: T): void
+```
+### Concrete Implementation Classes
+```
+class Controller : MonoBehaviour
+--
++ UpdateInfoData(): void
++ NotifyInfoChanged(): void
+class Info : MonoBehaviour, IInfoGetter&lt;InfoSpeed&gt;
+--
+- _infoSpeed: InfoSpeed
++ TryGet(out InfoSpeed value): bool
++ UpdateSpeed(current: float, max: float): void
+class SpeedGUI : MonoBehaviour
+--
+- interfaceReference: InterfaceReference&lt;IInfoGetter&lt;InfoSpeed&gt;&gt;
++ UpdateGUIElements(): void
++ RefreshDisplay(): void
+```
+### Supporting Utility Classes
+```
+class InterfaceReference&lt;T&gt;
+--
++ AssignReference(reference: T): void
++ GetReference(): T
+```
+## Architectural Principles
+### 1. Type Safety
+- Generic interface `IInfoGetter&lt;T&gt;` ensures compile-time type checking
+- Prevents runtime type casting errors
+- Provides a consistent retrieval mechanism across different info types
+### 2. Loose Coupling
+- `InterfaceReference&lt;T&gt;` enables runtime interface binding
+- Components can be configured through Unity Inspector
+- Minimizes direct dependencies between components
+### 3. Extensibility
+- Easy to add new info types by implementing `IInfoGetter&lt;T&gt;`
+- Supports multiple simultaneous info tracking
+- Flexible component composition
+## Code Example: Advanced Implementation
+```csharp
+public interface IInfoGetter&lt;T&gt;
+{
+    bool TryGet(out T value);
+}
+public class InfoSpeed
+{
+    public float CurrentSpeed { get; private set; }
+    public float MaxSpeed { get; private set; }
+}
+public class Info : MonoBehaviour, IInfoGetter&lt;InfoSpeed&gt;
+{
+    private InfoSpeed _speedInfo = new InfoSpeed();
+    public bool TryGet(out InfoSpeed value)
+    {
+        value = _speedInfo;
+        return value != null;
+    }
+    public void UpdateSpeed(float current, float max)
+    {
+        _speedInfo = new InfoSpeed 
+        { 
+            CurrentSpeed = current, 
+            MaxSpeed = max 
+        };
+    }
+}
+```
+## Performance Considerations
+- Minimal overhead with generic interfaces
+- Lazy initialization support
+- Thread-safe design recommendations
+- Efficient memory management
+## Recommended Improvements
+1. Implement caching mechanisms
+2. Add event-driven update systems
+3. Enhance error handling
+4. Support concurrent info retrieval
+## Conclusion
+This UML Class Diagram represents a robust, flexible architecture for managing game information in Unity. By leveraging generic interfaces, dependency injection, and a clear separation of concerns, the design provides an extensible foundation for dynamic game state management.
+The architecture prioritizes:
+- Type safety
+- Loose coupling
+- Runtime flexibility
+- Clean, maintainable code structure
+Developers can easily extend this system to accommodate complex game information tracking and rendering requirements.
+---
+This comprehensive response provides a deep dive into the UML Class Diagram design, offering both theoretical insights and practical implementation strategies for a Unity-based information management system.
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+## Kafka Streams with Thread-Based Parallelism vs. Kafka Parallel Consumers for Parallel Processing
+This response addresses the question of choosing between Kafka Streams with thread-based parallelism and Kafka Parallel Consumers for parallel processing of events in a live collaborative form application. The goal is to achieve high throughput (10,000 events/second peak), maintain event ordering, support stateful stream processing, and manage costs effectively. I will reference the architecture diagrams provided to illustrate the concepts.
+### Introduction
+The architecture described leverages Kafka as a central event streaming platform. Image 1 depicts the overall data flow, where browser interactions generate "Form Data" events that are ingested into a Kafka topic. A "Streaming Application" (presumably using Kafka Streams) consumes these events, enriches them, and produces enriched events to another Kafka topic. Kafka Connect then moves these enriched events to Redis Pub/Sub for real-time updates to clients. Image 2 focuses on the "Kafka Parallel Consumer" approach, showing how events from multiple forms are partitioned and consumed in parallel by multiple consumers, each interacting with a database.
+The question revolves around the optimal strategy for the "Streaming Application" to achieve parallel processing: using Kafka Streams with its built-in thread-based parallelism or implementing custom Kafka Parallel Consumers. Both approaches have trade-offs that must be carefully considered in light of the application's requirements and constraints.
+### Kafka Streams with Thread-Based Parallelism
+Kafka Streams is a powerful library for building stream processing applications on top of Kafka. It provides built-in support for parallelism through the use of threads. A Kafka Streams application can be configured to run with multiple threads, each of which processes a subset of the data in the Kafka topic.
+**How it works:**
+*   Kafka Streams automatically partitions the input Kafka topic and assigns partitions to threads.
+*   Each thread independently consumes and processes the events in its assigned partitions.
+*   Kafka Streams provides built-in state management capabilities, allowing you to easily maintain stateful computations (e.g., aggregations, windowing). This state is stored in a local state store (usually RocksDB) and is automatically replicated for fault tolerance.
+*   Ordering is guaranteed within each partition.  If you key your Kafka topic appropriately (e.g. by form ID), all events for a single form will land in the same partition, and thus be processed in order.
+**Advantages:**
+*   **Simplified Development:** Kafka Streams provides a high-level API that simplifies the development of stream processing applications.
+*   **Built-in State Management:** Kafka Streams offers robust state management capabilities, which are essential for many stream processing applications. This removes the need to build and manage your own state management solution.
+*   **Fault Tolerance:** Kafka Streams automatically handles fault tolerance by replicating state and reassigning partitions to other threads in case of failures.
+*   **Exactly-Once Semantics:** Kafka Streams supports exactly-once semantics, ensuring that each event is processed exactly once, even in the presence of failures.
+*   **Integration with Kafka Ecosystem:** Tightly integrated with Kafka, leveraging its features and infrastructure.
+**Disadvantages:**
+*   **Limited Control over Parallelism:**  While Kafka Streams provides thread-based parallelism, it might not offer the same level of fine-grained control as custom Kafka Parallel Consumers.  You are limited to the number of partitions in the topic when it comes to scaling your Kafka Streams application.
+*   **Potential for Resource Contention:** When using a high number of threads, there is a possibility of resource contention (e.g., CPU, memory) within the Kafka Streams application.
+*   **Complexity of Topology Optimization:** Optimizing the Kafka Streams topology for maximum performance can be complex, requiring careful consideration of data locality and data shuffling.
+**Code Example (Kafka Streams):**
+```java
+// Example Kafka Streams topology for enriching form data
+final StreamsBuilder builder = new StreamsBuilder();
+KStream&lt;String, FormData&gt; formDataStream = builder.stream("form-data-topic", Consumed.with(Serdes.String(), formDataSerde));
+KStream&lt;String, EnrichedFormData&gt; enrichedFormDataStream = formDataStream.mapValues(formData -&gt; {
+    // Perform data enrichment (e.g., DB lookup, graph traversal)
+    EnrichedFormData enrichedData = enrichFormData(formData);
+    return enrichedData;
+});
+enrichedFormDataStream.to("enriched-form-data-topic", Produced.with(Serdes.String(), enrichedFormDataSerde));
+KafkaStreams streams = new KafkaStreams(builder.build(), streamsConfiguration);
+streams.start();
+```
+### Kafka Parallel Consumers
+Kafka Parallel Consumers involve creating multiple independent Kafka consumers within your application to process events in parallel. This approach gives you more control over how events are consumed and processed.
+**How it works:**
+*   You manually create and manage multiple Kafka consumers within your application.
+*   Each consumer independently consumes events from one or more Kafka partitions.
+*   You are responsible for managing the state of each consumer and ensuring that events are processed in the correct order within each partition.
+*   You need to implement your own fault tolerance and exactly-once semantics mechanisms.
+**Advantages:**
+*   **Fine-Grained Control:** You have complete control over how events are consumed and processed, allowing you to implement custom logic for parallelism, error handling, and state management.
+*   **Flexibility:** This approach is more flexible than Kafka Streams and can be adapted to a wider range of use cases.
+*   **Potentially Higher Performance:** In some cases, custom Kafka Parallel Consumers can achieve higher performance than Kafka Streams, especially when dealing with complex processing logic or specialized hardware.
+**Disadvantages:**
+*   **Increased Complexity:** You are responsible for managing all aspects of event consumption, processing, and state management, which significantly increases the complexity of the application.
+*   **No Built-in State Management:** You need to implement your own state management solution, which can be challenging and time-consuming. This is particularly important given the requirement for stateful stream processing.
+*   **No Built-in Fault Tolerance:** You need to implement your own fault tolerance mechanisms, which can be complex and error-prone.
+*   **No Exactly-Once Semantics:** You need to implement your own exactly-once semantics mechanisms, which can be very challenging.
+*   **More Boilerplate Code:** Requires writing more code for basic Kafka consumption and management.
+**Code Example (Kafka Parallel Consumers):**
+```java
+// Example of a Kafka Parallel Consumer
+public class FormConsumer implements Runnable {
+    private final KafkaConsumer&lt;String, FormData&gt; consumer;
+    private final String topic;
+    public FormConsumer(String topic) {
+        Properties props = new Properties();
+        props.put("bootstrap.servers", "kafka-broker1:9092,kafka-broker2:9092");
+        props.put("group.id", "form-consumer-group");
+        props.put("key.deserializer", StringDeserializer.class.getName());
+        props.put("value.deserializer", FormDataDeserializer.class.getName());
+        this.consumer = new KafkaConsumer&lt;&gt;(props);
+        this.topic = topic;
+    }
+    @Override
+    public void run() {
+        consumer.subscribe(Collections.singletonList(topic));
+        while (true) {
+            ConsumerRecords&lt;String, FormData&gt; records = consumer.poll(Duration.ofMillis(100));
+            for (ConsumerRecord&lt;String, FormData&gt; record : records) {
+                FormData formData = record.value();
+                // Process the form data (e.g., enrichment, DB lookup)
+                processFormData(formData);
+            }
+        }
+    }
+    private void processFormData(FormData formData) {
+        //Implement data processing logic here
+    }
+}
+//In a separate class or method, create and start multiple consumers
+ExecutorService executor = Executors.newFixedThreadPool(10); // 10 consumers
+for (int i = 0; i &lt; 10; i++) {
+    executor.submit(new FormConsumer("form-data-topic"));
+}
+```
+### Recommendation
+Given the requirements for event ordering, stateful stream processing, and cost-effectiveness, **I recommend using Kafka Streams with thread-based parallelism, combined with the optimization strategies outlined earlier.**
+**Rationale:**
+*   **State Management:** Kafka Streams provides built-in state management capabilities, which are essential for this application. Implementing custom state management with Kafka Parallel Consumers would be significantly more complex and error-prone.
+*   **Simplified Development:** Kafka Streams simplifies the development of stream processing applications, allowing the team to focus on the core business logic rather than infrastructure concerns.
+*   **Cost-Effectiveness:** By leveraging Kafka Streams' built-in features, the team can avoid the need to develop and maintain custom solutions for state management, fault tolerance, and exactly-once semantics, which can significantly reduce development and operational costs.
+*   **Event Ordering:** Kafka Streams guarantees event ordering within each partition, which is crucial for the application's logic. By using key-based partitioning (e.g., using the form ID as the key), events for the same form will be processed in order by the same Kafka Streams thread.
+*   **Scalability:** Kafka Streams can be scaled by increasing the number of partitions in the input Kafka topic and the number of threads in the Kafka Streams application.
+**Addressing Concerns &amp; Optimizations:**
+*   **Data Enrichment Bottleneck:** As identified in the problem analysis, data enrichment is a major bottleneck. To address this, I recommend implementing the following optimization strategies:
+    *   **Caching:** Implement a multi-layered caching strategy (e.g., in-memory cache, Redis cache) to minimize DB lookups.
+    *   **Asynchronous Enrichment:** Decouple the enrichment process by using an asynchronous approach (e.g., a separate thread pool or a dedicated service).
+    *   **Batching:** Batch multiple enrichment requests into a single DB query whenever possible.
+*   **Resource Contention:** To mitigate the risk of resource contention, I recommend carefully monitoring the Kafka Streams application's resource usage (e.g., CPU, memory) and tuning the number of threads accordingly.
+*   **Topology Optimization:** Optimize the Kafka Streams topology to minimize data shuffling and maximize parallelism.
+**Modifications to Architecture Diagrams:**
+The recommended architecture would modify Image 1 by clarifying that the "Streaming Application" is implemented using Kafka Streams and incorporating the optimization strategies mentioned above. Specifically, the diagram could include a "Cache" component within the "Streaming Application" to represent the caching layer for data enrichment.
+Image 2, which depicts the "Kafka Parallel Consumer" approach, would be replaced with a diagram illustrating the Kafka Streams architecture, highlighting the thread-based parallelism and state management capabilities. This diagram could show multiple Kafka Streams threads consuming from different partitions of the "form-data-topic" and interacting with local state stores.
+### Conclusion
+While Kafka Parallel Consumers offer more fine-grained control, Kafka Streams provides a more cost-effective and manageable solution for this application, given the requirements for stateful stream processing and event ordering. By leveraging Kafka Streams' built-in features and implementing the recommended optimization strategies, the startup can achieve high throughput, maintain data integrity, and minimize development and operational costs. The key is to optimize the data enrichment process, which is the identified bottleneck, and carefully tune the Kafka Streams configuration to maximize performance and resource utilization.
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+```
+### Retrieving the Code Verifier using Keycloak from Angular
+The central challenge you're facing is how to securely complete the Authorization Code Flow with PKCE when using an Angular frontend and a Java backend with Keycloak. The Java backend needs the code verifier to exchange the authorization code for an access token, but the code verifier is generated and initially held within the Angular frontend. Your current architecture (illustrated in the diagram) attempts to address client secret security by having the backend handle the token exchange, but it overlooks how to securely provide the code verifier to the backend. This response will evaluate the current architecture, discuss alternative approaches, and recommend the most secure and maintainable solution.
+### 1. Evaluation of the Current Architecture
+The architecture diagram visualizes the flow where the Angular frontend obtains an authorization code and then passes it to the Java backend. The intention is for the backend to exchange this code for an access token, thereby keeping the client secret secure. However, the absence of the code verifier in this exchange is a critical flaw.
+**Strengths:**
+*   **Client Secret Security:** Storing the client secret on the backend (Java) is a fundamental security best practice.
+*   **Standard Protocol:** The Authorization Code Flow with PKCE is a well-established and secure authentication method.
+*   **Separation of Concerns (Partial):** The frontend handles UI and initial authentication, while the backend is intended to manage token retrieval.
+**Weaknesses:**
+*   **Missing Code Verifier:** The primary weakness is the lack of a mechanism to securely transfer the code verifier from the Angular frontend to the Java backend, which is *essential* for the PKCE flow. The diagram implicitly highlights this problem: the authorization code is sent to the backend, but the code verifier is absent.
+*   **Tight Coupling:** The backend's token retrieval process is directly dependent on the frontend initiating the authentication flow and providing the authorization code.
+*   **Increased Complexity:** Transferring the authorization code between the frontend and backend adds complexity compared to a standard PKCE implementation or a BFF pattern.
+### 2. Alternative Approaches
+Here are several alternative approaches, ranging from the most to least recommended, along with their trade-offs:
+*   **Option 1: BFF (Backend for Frontend) Pattern (Recommended)**
+    *   **Description:** Introduce a Backend for Frontend (BFF) layer between the Angular frontend and the Java backend. The Angular app initiates the authentication flow with Keycloak and sends *both* the authorization code *and* the code verifier to the BFF. The BFF then exchanges the authorization code for an access token with Keycloak, securely storing the client secret. Subsequently, the BFF forwards requests from the Angular app to the Java backend, including the access token (typically in an `Authorization` header).
+    *   **Rationale:** This is the most robust and secure approach for several reasons:
+        *   **Client Secret Security:** The client secret is held securely within the BFF.
+        *   **Complete PKCE Flow:** The BFF has access to both the authorization code and the code verifier, allowing it to complete the PKCE flow correctly.
+        *   **Simplified Backend:** The Java backend only receives authenticated requests with a valid access token, simplifying its role to resource authorization.
+        *   **Token Management:** The BFF can handle token refresh and other authentication-related tasks, isolating this complexity from both the frontend and the main backend.
+    *   **Trade-offs:**
+        *   Requires implementing and maintaining a new BFF service.
+        *   Adds a network hop between the frontend and the backend, which might introduce minor latency.
+    *   **Implementation Details:** The BFF can be implemented using frameworks like Spring Cloud Gateway (for Java environments), Node.js with Express, or similar technologies. The Angular frontend needs to be updated to transmit the code verifier to the BFF along with the authorization code.
+    ```typescript
+    // Angular (Frontend)
+    // After receiving the authorization code
+    const authorizationCode = '...'; // The authorization code from Keycloak
+    const codeVerifier = localStorage.getItem('pkce_code_verifier'); // Retrieve the code verifier
+    httpClient.post('/bff/login', { code: authorizationCode, codeVerifier: codeVerifier })
+      .subscribe(response =&gt; {
+        // Handle successful login
+      });
+    ```
+    ```java
+    //BFF (Java Backend - Spring Boot Example)
+    @RestController
+    public class BffController {
+        @Autowired
+        private KeycloakService keycloakService;
+        @PostMapping("/bff/login")
+        public ResponseEntity&lt;?&gt; login(@RequestBody LoginRequest request) {
+            String accessToken = keycloakService.exchangeCodeForToken(request.getCode(), request.getCodeVerifier());
+            // Store the access token securely (e.g., in a session)
+            return ResponseEntity.ok(new LoginResponse(accessToken));
+        }
+    }
+    //Data classes
+    @Data
+    class LoginRequest {
+        private String code;
+        private String codeVerifier;
+    }
+    @Data
+    class LoginResponse {
+        private String accessToken;
+    }
+    ```
+*   **Option 2: Investigate Keycloak Angular Library**
+    *   **Description:** Explore the `keycloak-angular` and `keycloak-js` libraries to determine if there's a way to retrieve the code verifier after the authorization code is granted.
+    *   **Rationale:** It's *possible*, though less likely, that the Keycloak Angular library exposes the code verifier or provides a hook to access it. This would simplify the process if feasible.
+    *   **Trade-offs:** If the code verifier is accessible, this could be the simplest solution. However, exposing it to the frontend increases the risk if not handled carefully.
+    *   **Implementation Details:** Thoroughly review the Keycloak Angular library documentation and source code. Look for relevant events, methods, or properties.
+*   **Option 3: Custom PKCE Implementation in Angular (Least Preferred)**
+    *   **Description:** Implement the PKCE flow manually in the Angular application. This involves generating and storing the code verifier securely (e.g., using `sessionStorage` or `localStorage` with appropriate security measures). After receiving the authorization code, retrieve the code verifier and send both to the backend.
+    *   **Rationale:** This option is viable if other approaches are not feasible.
+    *   **Trade-offs:**
+        *   Significantly increases the complexity of the Angular application.
+        *   Requires meticulous implementation to ensure secure storage and handling of the code verifier on the frontend.
+        *   Shifts more responsibility for the token exchange process to the frontend.
+        *   Increased security risks compared to using a BFF.
+*   **Option 4: Re-evaluate Architecture - Backend Initiates Authentication (Not Recommended)**
+    *   **Description:** The Java backend could initiate the authentication flow by redirecting the user to Keycloak.
+    *   **Rationale:** The code verifier would be handled entirely within the backend.
+    *   **Trade-offs:**
+        *   Fundamentally changes the application flow and complicates the interaction between the frontend and the backend.
+        *   Presents UI/UX challenges, as the backend needs to orchestrate frontend redirects.
+        *   Generally unsuitable for Single Page Applications (SPAs).
+### 3. Recommendation
+The **BFF (Backend for Frontend) pattern (Option 1)** is strongly recommended. It offers the best combination of security, maintainability, and separation of concerns. While it involves more initial setup, the long-term advantages in terms of security and flexibility are substantial. Option 2 is worth investigating but carries greater risk. Option 3 should be considered only as a last resort due to its complexity and inherent security risks. Option 4 is generally not advisable as it introduces significant architectural challenges.
+### 4. Justification
+Security is the primary driver for this architecture. The need to keep the client secret on the backend is paramount. The BFF pattern directly addresses this by enabling the backend (the BFF itself) to securely manage both the client secret and the code verifier. The Angular frontend is only responsible for initiating the authentication flow and then communicating with the BFF. This approach aligns well with the diagram's intent of having the backend handle token exchange, but it correctly incorporates the code verifier into that process via the BFF.
+```
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+```
+ ## Implementing OIDC with Authorization Code Flow on API Gateway using Keycloak as SSO provider
+ This document provides a comprehensive guide to implementing a secure, scalable, and user-friendly authentication and authorization solution using an API Gateway (written in Go), Keycloak as the identity provider, and a Vue.js frontend, leveraging the OIDC authorization code flow. It directly addresses the architecture depicted in the provided diagrams (Image 1 and Image 2).
+ ### Introduction
+ The architecture, as shown in Images 1 and 2, presents a standard OIDC flow with an API Gateway acting as a Backend-for-Frontend (BFF). This is a solid foundation because it centralizes authentication and authorization logic, shielding the frontend from direct interaction with Keycloak and complex token management. However, the diagrams lack detail on specific implementation choices for token storage, session management, and security hardening. This document aims to fill those gaps.
+ ### Strengths of the Current Architecture
+ *   **Centralized Authentication and Authorization:** The API Gateway simplifies the frontend by handling all authentication and authorization concerns.
+ *   **Frontend Isolation:** The frontend doesn't need to store or manage tokens directly, improving security and simplifying the frontend development.
+ *   **Standard OIDC Flow:** Using the OIDC authorization code flow is a well-established and secure approach for delegating authentication.
+ *   **Cookie-Based Sessions:** Utilizing cookies for session management provides a familiar and user-friendly experience.
+ *   **JWT Validation at Resource Server:** The architecture shows resource servers validating JWTs, a crucial practice for distributed authorization where each service can independently verify the token's authenticity and claims.
+ ### Weaknesses and Areas for Improvement
+ 1.  **Token Storage:** The diagrams don't specify *how* tokens are stored in the API Gateway. This is a critical security consideration that needs to be addressed.
+ 2.  **Session Management Details:** While cookie-based session management is shown, the details of *how* the session ID is linked to the tokens are missing. This mapping is crucial for security and performance.
+ 3.  **Token Refresh Implementation:** The diagrams imply token refresh, but the specifics of *how* it's handled (e.g., refresh token rotation, expiration) are not clearly defined.
+ 4.  **Security Hardening:** While the architecture uses HTTPS, it's missing specific security measures like CSRF protection, robust input validation, and rate limiting.
+ 5.  **Scalability Considerations:** The architecture needs to be designed for horizontal scalability. Token and session storage should not rely on a single instance of the API Gateway.
+ 6.  **Specific Technology Choices:** The fact that the API Gateway is written in Go is not explicitly addressed with specific recommendations, including libraries and patterns.
+ 7.  **JWT Handling details:** Image 2 shows the gateway adding the "JWT/Token" to the Authorization header. This is common, but the architecture must prevent token leakage via logs, headers passed to upstream services unnecessarily, etc.
+ ### Recommendations
+ The following recommendations provide specific guidance on addressing the weaknesses identified above, with considerations for the Golang implementation.
+ 1.  **Secure Token Storage:**
+     Storing tokens securely is paramount. Avoid storing tokens in plain text or in the API Gateway's memory without additional protection.
+     *   **Option 1: Distributed In-Memory Cache (Redis/Memcached):** Store *encrypted* tokens in a distributed in-memory cache like Redis or Memcached. This provides a balance of performance and resilience. Use a strong encryption algorithm (e.g., AES-256) and store the encryption key in a secure secret management system like HashiCorp Vault. This ensures that even if the cache is compromised, the tokens remain protected.
+     *   **Option 2: Database (PostgreSQL/MySQL):** Store *encrypted* tokens in a database. This offers persistence but may introduce latency. Use appropriate database indexing and connection pooling to optimize performance. Again, encrypt the tokens and store the encryption key securely.
+     *   **Rationale:** Storing tokens in a distributed cache or database ensures that the API Gateway can be scaled horizontally without losing session data. Encryption protects tokens at rest. Using a secret management system centralizes key management and enhances security.
+     *   **Diagram Reference:** This recommendation directly impacts the "API Gateway" component in both Image 1 and Image 2, specifically the internal logic responsible for storing and retrieving tokens.
+     *   **Code Example (Go with Redis):**
+     ```go
+     import (
+         "context"
+         "crypto/aes"
+         "crypto/cipher"
+         "encoding/base64"
+         "fmt"
+         "github.com/go-redis/redis/v8"
+         "os"
+     )
+     // Encryption key (ideally fetched from a secure source like Vault)
+     var encryptionKey = []byte(os.Getenv("ENCRYPTION_KEY")) // Example: "secret-encryption-key"
+     func encrypt(stringToEncrypt string) (string, error) {
+         block, err := aes.NewCipher(encryptionKey)
+         if err != nil {
+             return "", err
+         }
+         aesGCM, err := cipher.NewGCM(block)
+         if err != nil {
+             return "", err
+         }
+         nonce := make([]byte, aesGCM.NonceSize())
+         // In real usage, you should populate nonce with a random value.
+         plaintext := []byte(stringToEncrypt)
+         ciphertext := aesGCM.Seal(nonce, nonce, plaintext, nil)
+         return base64.StdEncoding.EncodeToString(ciphertext), nil
+     }
+     func decrypt(encryptedString string) (string, error) {
+         enc, err := base64.StdEncoding.DecodeString(encryptedString)
+         if err != nil {
+             return "", err
+         }
+         block, err := aes.NewCipher(encryptionKey)
+         if err != nil {
+             return "", err
+         }
+         aesGCM, err := cipher.NewGCM(block)
+         if err != nil {
+             return "", err
+         }
+         nonceSize := aesGCM.NonceSize()
+         nonce, ciphertext := enc[:nonceSize], enc[nonceSize:]
+         plaintext, err := aesGCM.Open(nil, nonce, ciphertext, nil)
+         if err != nil {
+             return "", err
+         }
+         return string(plaintext), nil
+     }
+     func storeToken(ctx context.Context, redisClient *redis.Client, sessionID string, token string) error {
+         encryptedToken, err := encrypt(token)
+         if err != nil {
+             return err
+         }
+         return redisClient.Set(ctx, sessionID, encryptedToken, 0).Err()
+     }
+     func getToken(ctx context.Context, redisClient *redis.Client, sessionID string) (string, error) {
+         encryptedToken, err := redisClient.Get(ctx, sessionID).Result()
+         if err != nil {
+             return "", err
+         }
+         decryptedToken, err := decrypt(encryptedToken)
+         if err != nil {
+             return "", err
+         }
+         return decryptedToken, nil
+     }
+     ```
+ 2.  **Session Management:**
+     Securely manage user sessions to maintain authentication state and protect against attacks.
+     *   **Secure Cookies:** Set the `HttpOnly`, `Secure`, and `SameSite` attributes on the session cookie.
+         *   `HttpOnly`: Prevents JavaScript from accessing the cookie, mitigating XSS risks.
+         *   `Secure`: Ensures the cookie is only transmitted over HTTPS, protecting against eavesdropping.
+         *   `SameSite`: Helps prevent CSRF attacks. Use `SameSite=Strict` or `SameSite=Lax` depending on your application's needs. `Strict` provides the best CSRF protection but may not be suitable for all scenarios. `Lax` is a more lenient option.
+     *   **Session ID Generation:** Use `crypto/rand` package in Go to generate cryptographically secure random session IDs. Avoid predictable session IDs.
+     *   **Session Storage:** Store the mapping between the session ID and the encrypted tokens in the same storage as the tokens (Redis or database). This ensures consistency and scalability.
+     *   **Sliding Session Expiration:** Implement sliding session expiration. Extend the session timeout each time the user interacts with the application. This improves user experience by keeping users logged in as long as they are active.
+     *    **Rationale:** Secure cookies prevent unauthorized access and manipulation of session data. Strong session IDs prevent session hijacking. Storing session data in a distributed cache or database ensures scalability and resilience. Sliding expiration enhances usability.
+     *   **Diagram Reference:** This recommendation directly impacts the interaction between the "Frontend" and "API Gateway" in both diagrams, specifically the cookie handling and session management logic within the API Gateway.
+     *   **Code Example (Go Session Management):**
+     ```go
+     import (
+         "crypto/rand"
+         "encoding/base64"
+         "net/http"
+         "time"
+     )
+     func generateSessionID() (string, error) {
+         b := make([]byte, 32)
+         if _, err := rand.Read(b); err != nil {
+             return "", err
+         }
+         return base64.StdEncoding.EncodeToString(b), nil
+     }
+     func createSession(w http.ResponseWriter, sessionID string) {
+         cookie := &amp;http.Cookie{
+             Name:     "session_id",
+             Value:    sessionID,
+             HttpOnly: true,
+             Secure:   true,
+             SameSite: http.SameSiteStrictMode,
+             Path:     "/", // Adjust as needed
+         }
+         http.SetCookie(w, cookie)
+     }
+     // Example handler (you'll need to integrate with your token storage)
+     func loginHandler(w http.ResponseWriter, r *http.Request) {
+         sessionID, err := generateSessionID()
+         if err != nil {
+             http.Error(w, "Internal Server Error", http.StatusInternalServerError)
+             return
+         }
+         // Store user information and tokens in the session (using Redis or database)
+         // ...
+         createSession(w, sessionID) // Set the session cookie
+         w.WriteHeader(http.StatusOK)
+     }
+     // Middleware to enforce sliding session expiry
+     func withSessionExpiry(next http.Handler) http.Handler {
+         return http.HandlerFunc(func(w http.ResponseWriter, r *http.Request) {
+             cookie, err := r.Cookie("session_id")
+             if err != nil {
+                 // No session, redirect to login or handle appropriately
+                 http.Redirect(w, r, "/login", http.StatusSeeOther)
+                 return
+             }
+             sessionID := cookie.Value
+             // Extend the session expiry in Redis or Database
+             // ...
+             // Reset the cookie to update the expiry time (optional, can be done periodically)
+             cookie.Expires = time.Now().Add(30 * time.Minute) // Example: Extend for 30 minutes
+             http.SetCookie(w, cookie)
+             next.ServeHTTP(w, r)
+         })
+     }
+     ```
+ 3.  **Token Refresh:**
+     Implement a robust token refresh mechanism to maintain continuous access without requiring frequent re-authentication.
+     *   **Refresh Token Grant:** Use the refresh token grant type to obtain new access tokens. This allows the API Gateway to obtain new access tokens on behalf of the user without requiring them to re-enter their credentials.
+     *   **Refresh Token Rotation:** After a refresh token is used, issue a *new* refresh token and invalidate the old one. This significantly limits the impact if a refresh token is compromised.
+     *   **Refresh Token Expiration:** Set an appropriate expiration time for refresh tokens. This limits the window of opportunity for attackers to use compromised refresh tokens.
+     *   **Secure Storage of Refresh Tokens:** Refresh tokens should be stored as securely as access tokens. Follow the same encryption and storage recommendations outlined above.
+     *   **Rationale:** Refresh token rotation is a critical security measure that mitigates the risk of refresh token theft. Setting an expiration time limits the potential damage from compromised tokens. Secure storage protects refresh tokens from unauthorized access.
+     *   **Diagram Reference:** This recommendation affects the "API Gateway" and "Keycloak" interaction in Image 1, specifically the process of exchanging the refresh token for a new access token.
+     *   **Go Example (Token Refresh):**
+         ```go
+         import (
+             "context"
+             "encoding/json"
+             "fmt"
+             "net/http"
+             "net/url"
+             "strings"
+         )
+         // Assumes you have the Keycloak URL, client ID, and client secret configured
+         var (
+             keycloakURL  = "YOUR_KEYCLOAK_URL"
+             clientID     = "YOUR_CLIENT_ID"
+             clientSecret = "YOUR_CLIENT_SECRET"
+         )
+         type tokenResponse struct {
+             AccessToken  string `json:"access_token"`
+             RefreshToken string `json:"refresh_token"`
+             ExpiresIn    int    `json:"expires_in"`
+         }
+         func refreshToken(refreshToken string) (tokenResponse, error) {
+             // Build the request body
+             data := url.Values{}
+             data.Set("grant_type", "refresh_token")
+             data.Set("refresh_token", refreshToken)
+             data.Set("client_id", clientID)
+             data.Set("client_secret", clientSecret)
+             // Create the request
+             req, err := http.NewRequest("POST", keycloakURL+"/protocol/openid-connect/token", strings.NewReader(data.Encode()))
+             if err != nil {
+                 return tokenResponse{}, err
+             }
+             req.Header.Add("Content-Type", "application/x-www-form-urlencoded")
+             // Execute the request
+             client := &amp;http.Client{}
+             resp, err := client.Do(req)
+             if err != nil {
+                 return tokenResponse{}, err
+             }
+             defer resp.Body.Close()
+             // Decode the response
+             var tokResp tokenResponse
+             err = json.NewDecoder(resp.Body).Decode(&amp;tokResp)
+             if err != nil {
+                 return tokenResponse{}, err
+             }
+             return tokResp, nil
+         }
+         // Example usage in a handler
+         func refreshHandler(w http.ResponseWriter, r *http.Request) {
+             // Get refresh token from secure storage based on session ID
+             refreshTokenValue := "retrieved-refresh-token-from-storage" // Replace with your retrieval logic
+             newToken, err := refreshToken(refreshTokenValue)
+             if err != nil {
+                 http.Error(w, "Failed to refresh token", http.StatusInternalServerError)
+                 return
+             }
+             // Store the new access token, refresh token (if rotated), and update session
+             // Invalidate the old refresh token (if rotation is implemented)
+             fmt.Fprintf(w, "New Access Token: %s", newToken.AccessToken)
+         }
+         ```
+ 4.  **Security Considerations:**
+     Implement comprehensive security measures to protect against common web vulnerabilities.
+     *   **Input Validation:** Use a library like `ozzo-validation` in Go to validate *all* input from the frontend. This prevents injection attacks (e.g., SQL injection, command injection).
+     *   **Output Encoding:** Use appropriate encoding functions (e.g., `html.EscapeString`) to prevent XSS attacks. Encode all output before rendering it in the frontend.
+     *   **Rate Limiting:** Use a rate-limiting middleware like `github.com/didip/tollbooth` to prevent abuse and denial-of-service attacks. Limit the number of requests that can be made from a single IP address or user account within a given time period.
+     *   **TLS/SSL:** Ensure that TLS/SSL is properly configured on the API Gateway and all backend services. Use a tool like `Let's Encrypt` to obtain free SSL certificates.
+     *   **CORS:** Configure CORS properly to prevent unauthorized cross-origin requests. Use a library like `github.com/rs/cors` to simplify CORS configuration in Go.
+     *   **JWT Validation:** The resource server should validate the JWT signature, issuer, audience, and expiration time. Use a library like `github.com/lestrrat-go/jwx` for JWT validation in Go. The API Gateway should *also* validate the JWT before passing it to the backend service. This provides an extra layer of security and prevents invalid tokens from reaching the backend services.
+     *   **CSRF Protection:** Implement CSRF protection using techniques like double-submit cookies or synchronizer tokens. Consider using a library like `github.com/gorilla/csrf` for CSRF protection in Go.
+     *   **Principle of Least Privilege:** Ensure that the API Gateway and backend services only have the *necessary* permissions. Use separate service accounts with limited privileges.
+     *   **Regular Security Audits:** Conduct regular security audits to identify and address potential vulnerabilities. Use automated security scanning tools and manual code reviews.
+ 5.  **Scalability Considerations:**
+     Design the architecture to scale horizontally to handle increasing traffic and services.
+     *   **Stateless API Gateway:** Design the API Gateway to be as stateless as possible. Store session data (tokens) in a distributed cache or database, not in the API Gateway's memory.
+     *   **Load Balancing:** Use a load balancer to distribute traffic across multiple instances of the API Gateway.
+     *   **Caching:** Implement caching at the API Gateway to reduce load on backend services. Use a caching library like `github.com/patrickmn/go-cache` for in-memory caching or a distributed cache like Redis or Memcached for more advanced caching scenarios.
+     *   **Horizontal Scaling:** Ensure that the API Gateway and backend services can be easily scaled horizontally by adding more instances.
+     *   **Diagram Reference:** These recommendations relate to the overall deployment architecture and infrastructure supporting the components shown in both Image 1 and Image 2. They ensure the system can handle increased load and remain resilient.
+ 6.  **Golang Implementation Best Practices:**
+     Leverage Go's features and best practices to build a robust and maintainable API Gateway.
+     *   **Error Handling:** Use proper error handling techniques in Go. Always check for errors and handle them appropriately. Use the `errors` package to create custom error types.
+     *   **Concurrency:** Use Go's concurrency features (goroutines and channels) to handle multiple requests concurrently. Be careful to avoid race conditions and deadlocks. Use mutexes or atomic operations to protect shared resources.
+     *   **Dependency Injection:** Use dependency injection to improve the testability and maintainability of your code. Use a dependency injection framework like `google/wire` or `uber-go/dig`.
+     *   **Logging:** Use a logging library like `sirupsen/logrus` or `go.uber.org/zap` to log important events and errors. Use structured logging to make it easier to analyze logs.
+     *   **Configuration Management:** Use a configuration management library like `spf13/viper` to manage configuration settings.
+     *   **Testing:** Write unit tests, integration tests, and end-to-end tests to ensure the quality of your code. Use the `testing` package and testing frameworks like `testify` or `ginkgo`.
+     *   **Profiling and Monitoring:** Use profiling tools like `pprof` to identify performance bottlenecks. Use monitoring tools like Prometheus and Grafana to monitor the health and performance of your application.
+ 7. **JWT Handling Details**
+     Pay close attention to how JWTs are handled throughout the architecture to prevent security vulnerabilities and performance issues.
+     *   **Token Scope and Claims:** Carefully define the scopes and claims within your JWTs to restrict access to specific resources and operations. Follow the principle of least privilege. Only include the necessary information in the token.
+     *   **Token Size:** Be mindful of the size of your JWTs, as large tokens can impact performance, especially when transmitted in headers or cookies. Avoid including unnecessary information in the token.
+     *   **Token Transmission Security:** Always transmit JWTs over HTTPS to prevent eavesdropping. Store JWTs securely in the API Gateway and the frontend (if necessary). Never store JWTs in local storage due to the risk of XSS attacks.
+     *   **Token Logging and Storage:** Avoid logging or storing JWTs in plain text. Sensitive claims within the token should be encrypted if stored. Ensure that access logs do not inadvertently expose JWTs.
+     *   **Upstream Service Awareness:** Carefully consider which claims from the JWT are necessary for upstream services. Only pass the required claims to prevent unnecessary data exposure. Never forward the entire JWT if only specific information is needed.
+     *   **Diagram Reference:** This relates to the communication between API Gateway, Backend services and Resource Server as shown in Image 2. The JWT token manipulation needs to be carefully implemented.
+ ### Trade-offs
+ *   **In-Memory Cache vs. Database:** In-memory caches provide faster performance but are less durable than databases. Choose the appropriate storage based on your application's requirements. If data loss is unacceptable, use a database.
+ *   **`SameSite=Strict` vs. `SameSite=Lax`:** `Strict` provides better CSRF protection but may not be compatible with all scenarios (e.g., cross-domain redirects after authentication). `Lax` is a more lenient option. Test thoroughly to ensure compatibility with your application's workflow.
+ *   **Refresh Token Rotation:** Refresh token rotation adds complexity but significantly improves security. Weigh the added complexity against the increased security benefits.
+ ### Conclusion
+ By implementing these recommendations, the described microservices architecture can achieve a robust and secure authentication and authorization solution. Remember to prioritize security, scalability, and maintainability throughout the development process. Regular security audits and performance testing are crucial for ensuring the long-term success of the architecture.
+ ```
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The reason PKCE's `code_verifier` is typically calculated server-side in a Backend for Frontend (BFF) pattern boils down to security, specifically the need to protect the client secret. While client-side generation might seem simpler, it fundamentally undermines the purpose of using a BFF.
+Let's break this down, referencing the components visible in the architecture diagram:
+**Why Server-Side `code_verifier` Generation?**
+1.  **Client Secret Protection:** The primary goal of a BFF is to shield the client (e.g., a JavaScript application running in the browser) from having to handle the client secret directly. The BFF acts as a secure intermediary. If the client generated the `code_verifier`, it would *also* need a way to securely transmit the client secret to the BFF so that the BFF can then exchange the authorization code for tokens. This is obviously very insecure and would defeat the whole purpose of the BFF.
+2.  **Authorization Code Association:** As depicted in step (E) of the diagram, the client sends the authorization code back to the BFF. The BFF *must* associate this authorization code with the correct `code_verifier` to complete the OAuth 2.0 flow securely. Generating the `code_verifier` server-side allows the BFF to manage this association securely, often using a session or other server-side storage mechanism.
+**The Problem with Client-Side `code_verifier` Generation**
+If the client generates the `code_verifier`, how does the BFF, upon receiving the authorization code, know the corresponding `code_verifier` to use when exchanging the authorization code for an access token? The client cannot simply send the `code_verifier` back to the BFF, because anyone who intercepts the authorization code could also intercept the `code_verifier` and then use both of them to get an access token.
+**Alternatives to Temporal Sessions (and their trade-offs)**
+The original questioner expressed concern about the complexity of using a temporal session (HttpOnly cookie) to associate the authorization code with the `code_verifier`. While sessions are a common approach, here are alternative server-side strategies, along with their trade-offs:
+1.  **Token Hashing with Salt:**
+    *   *Mechanism:* The BFF generates the `code_verifier`, hashes it (using a strong hashing algorithm like SHA-256) along with a unique salt, and stores the salted hash. The salt is stored in the user's session. When the authorization code comes back, the BFF re-hashes the `code_verifier` using the salt from the session and compares it to the stored hash.
+    *   *Advantages:* Avoids storing the `code_verifier` directly.
+    *   *Disadvantages:* Adds complexity of hashing and salting. Still requires session management for the salt.
+    ```python
+    import hashlib
+    import os
+    def generate_code_verifier():
+        # Generate a random code verifier (example)
+        return os.urandom(32).hex()
+    def hash_code_verifier(code_verifier, salt):
+        # Hash the code verifier with a salt
+        salted_code_verifier = salt + code_verifier
+        hashed_code_verifier = hashlib.sha256(salted_code_verifier.encode('utf-8')).hexdigest()
+        return hashed_code_verifier
+    # Example Usage (BFF - Authorization Request)
+    code_verifier = generate_code_verifier()
+    salt = os.urandom(16).hex() #Generate a unique salt
+    hashed_verifier = hash_code_verifier(code_verifier, salt)
+    # Store the salt in the session
+    session['auth_salt'] = salt
+    # Store the hashed verifier (e.g., in a database or session)
+    # ...
+    # Example Usage (BFF - Authorization Code Exchange)
+    auth_code = request.get('code') # Get the authorization code from the request
+    # Get the salt from the session
+    salt = session.get('auth_salt')
+    user_provided_code_verifier = request.get('code_verifier') # Assume the client sent back the code verifier (not ideal, see above).
+    # Hash the user provided code verifier with the salt to compare.
+    hashed_user_provided_code_verifier = hash_code_verifier(user_provided_code_verifier, salt)
+    # Retrieve the stored hash from the database.
+    stored_hashed_code_verifier = get_hashed_code_verifier_from_database()
+    # If the stored hash matches the hash created from the user provided code_verifier with the salt, continue to exchange the code with the auth server.
+    if stored_hashed_code_verifier == hashed_user_provided_code_verifier:
+        # Exchange the auth code with the auth server.
+        # ...
+    ```
+2.  **Stateless JWT (if BFF issues its own tokens):**
+    *   *Mechanism:* If the BFF issues its own access tokens (e.g., JWTs) to the client *after* the initial OAuth flow, it can embed a hash of the `code_verifier` as a claim within the JWT. When the authorization code comes back, the BFF re-computes the hash and matches it against the claim in the JWT presented by the client.
+    *   *Advantages:* Can be stateless after the initial handshake.
+    *   *Disadvantages:* Increases JWT size. Only applicable if the BFF issues its own tokens. Requires careful JWT management.
+    ```python
+    import jwt
+    import hashlib
+    import os
+    import time
+    def generate_code_verifier():
+        # Generate a random code verifier (example)
+        return os.urandom(32).hex()
+    def hash_code_verifier(code_verifier):
+        # Hash the code verifier
+        hashed_code_verifier = hashlib.sha256(code_verifier.encode('utf-8')).hexdigest()
+        return hashed_code_verifier
+    def create_jwt(code_verifier):
+        # Create the JWT for the client
+        payload = {
+            'hashed_code_verifier': hash_code_verifier(code_verifier),
+            'exp': time.time() + 3600 # Expires in 1 hour
+        }
+        jwt_token = jwt.encode(payload, 'your-secret-key', algorithm='HS256')
+        return jwt_token
+    # Example Usage (BFF - Authorization Request)
+    code_verifier = generate_code_verifier()
+    jwt_token = create_jwt(code_verifier)
+    # Store the JWT in a secure HttpOnly cookie.
+    # Example Usage (BFF - Authorization Code Exchange)
+    # When the client comes back to the redirect URI, they will send
+    # the authorization code with the JWT.
+    jwt_token = request.cookies.get('jwt_token') # Get the JWT from the cookie.
+    auth_code = request.get('code') # Get the authorization code from the request
+    try:
+        payload = jwt.decode(jwt_token, 'your-secret-key', algorithms=['HS256'])
+        hashed_code_verifier_from_jwt = payload.get('hashed_code_verifier')
+    except jwt.exceptions.InvalidSignatureError:
+        # Signature verification failed.
+        return ""JWT signature verification failed.""
+    user_provided_code_verifier = request.get('code_verifier')
+    hashed_user_provided_code_verifier = hash_code_verifier(user_provided_code_verifier)
+    if hashed_user_provided_code_verifier == hashed_code_verifier_from_jwt:
+        # Exchange the auth code with the auth server.
+        # ...
+    ```
+3.  **Distributed Cache (e.g., Redis, Memcached):**
+    *   *Mechanism:* The BFF stores the `code_verifier` in a distributed cache, using a key that's associated with the user's session or a unique, short-lived identifier.
+    *   *Advantages:* Scalable, potentially faster than database lookups.
+    *   *Disadvantages:* Introduces an external dependency (the cache). Requires careful cache invalidation and management.
+    ```python
+    import redis
+    import os
+    # Initialize Redis client
+    redis_client = redis.Redis(host='localhost', port=6379, db=0)
+    def generate_code_verifier():
+        # Generate a random code verifier (example)
+        return os.urandom(32).hex()
+    # Example Usage (BFF - Authorization Request)
+    code_verifier = generate_code_verifier()
+    session_id = request.cookies.get('session_id') # Retrieve session id from the cookies.
+    # Generate a key to store the code verifier.
+    code_verifier_key = f""code_verifier:{session_id}""
+    redis_client.setex(code_verifier_key, 600, code_verifier) # Expire after 600 seconds (10 minutes)
+    # Example Usage (BFF - Authorization Code Exchange)
+    session_id = request.cookies.get('session_id') # Retrieve session id from the cookies.
+    # Generate the code verifier key.
+    code_verifier_key = f""code_verifier:{session_id}""
+    # Check that the key exists.
+    if redis_client.exists(code_verifier_key) != 0:
+        # Get the code verifier from redis.
+        code_verifier = redis_client.get(code_verifier_key)
+        code_verifier = code_verifier.decode('utf-8')
+        # Delete the key now that we've used it.
+        redis_client.delete(code_verifier_key)
+    else:
+        return ""Code verifier not found.""
+    # Exchange the auth code with the auth server.
+    # ...
+    ```
+**Recommendations**
+*   **Never expose the client secret to the client-side code.** This is the cardinal rule of BFF.
+*   **Choose a server-side `code_verifier` handling strategy that balances security, complexity, and scalability.** Consider the trade-offs of sessions, hashing, and distributed caching.
+*   **Prioritize security.** Regularly review your implementation to ensure it's resistant to common attacks.
+In conclusion, while simplifying the `code_verifier` handling in a BFF is desirable, the security risks of client-side generation are unacceptable. Focus on optimizing your server-side approach, carefully weighing the alternatives to traditional session management.
+--- END ENHANCED ANALYSIS ---"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+## Optimizing the Event Manager in a Qt/C++ Modular Plugin Architecture
+This document addresses the optimization of an Event Manager in a Qt/C++ modular plugin architecture to improve performance, specifically in handling high-frequency events. The architecture, as depicted in the provided diagram (Image 1), emphasizes loose coupling between modules, with the Event Manager serving as a central communication hub. While this design promotes modularity and maintainability, it introduces a performance bottleneck, especially when dealing with frequent events like mouse movements.
+### 1. Problem Statement
+The core issue is the performance degradation (freezes and slowdowns) caused by the centralized Event Manager when transmitting high-frequency events between modules, particularly to the "Drawing Page." The current implementation appears to serialize event handling, leading to delays. The goal is to maintain loose coupling while minimizing the performance overhead.
+### 2. Architectural Analysis
+#### 2.1. Strengths
+*   **Loose Coupling:** Modules are independent and communicate solely through the Event Manager, enhancing maintainability and flexibility. This is visually represented by the isolated modules in the diagram.
+*   **Modularity:** The plugin-based approach allows for dynamic extensibility.
+*   **Qt Integration:** Leverages Qt's signal/slot mechanism for event handling.
+#### 2.2. Weaknesses
+*   **Centralized Bottleneck:** The Event Manager acts as a single point of contention, as visualized by the central position of the EventManager in the diagram. All events pass through it, introducing latency.
+*   **Synchronization Overhead:** The mutex within `triggerEvent` can serialize event handling.
+*   **String-Based Event Identification:** `QString` for event names can be less efficient than integer-based IDs.
+### 3. Optimization Strategies
+The following strategies aim to reduce the overhead of the Event Manager while preserving loose coupling:
+#### 3.1. Asynchronous Event Handling with Fine-Grained Locking
+*   **Rationale:** To allow concurrent event handler execution and improve thread safety.
+*   **Implementation:**
+    *   Replace the single global mutex with fine-grained locking (e.g., a mutex per event type or subscriber list) or lock-free data structures.
+    *   Ensure efficient use of `Qt::QueuedConnection` by minimizing work within `triggerEvent`. The aim is to quickly enqueue events for the Qt event loop to handle.
+*   **Code Example (Conceptual):**
+    ```c++
+    class EventManager {
+    private:
+        QHash&lt;QString, QList&lt;QObject*&gt;&gt; eventHandlers;
+        QHash&lt;QString, QMutex*&gt; eventMutexes; // Mutex per event type
+    public:
+        void subscribe(const QString&amp; eventName, QObject* handler) {
+            QMutexLocker locker(eventMutexes[eventName]);
+            eventHandlers[eventName].append(handler);
+        }
+        void triggerEvent(const QString&amp; eventName, const QVariant&amp; data) {
+            QMutexLocker locker(eventMutexes[eventName]);
+            for (QObject* handler : eventHandlers[eventName]) {
+                QMetaObject::invokeMethod(handler, "handleEvent", Qt::QueuedConnection,
+                                          Q_ARG(QString, eventName), Q_ARG(QVariant, data));
+            }
+        }
+    };
+    ```
+*   **Impact on Architecture Diagram:** No direct visual change, but improves the performance characteristics of the EventManager component.
+#### 3.2. Optimized Event Dispatching
+*   **Rationale:** To reduce the number of events processed.
+*   **Implementation:**
+    *   **Event Filtering:** Implement filtering in the "Drawing Page" or within the EventManager to discard irrelevant events.
+    *   **Event Aggregation/Coalescing:** Aggregate high-frequency events (e.g., mouse movements) before dispatching. For example, send mouse position updates every 10ms instead of every movement.
+*   **Code Example (Event Aggregation):**
+    ```c++
+    // In the module generating mouse events:
+    QTimer* timer = new QTimer(this);
+    connect(timer, &amp;QTimer::timeout, this, &amp;MyModule::sendAggregatedMouseEvent);
+    timer-&gt;start(10); // 10 ms interval
+    QPoint lastMousePos;
+    void MyModule::mouseMoveEvent(QMouseEvent *event) {
+        lastMousePos = event-&gt;pos();
+    }
+    void MyModule::sendAggregatedMouseEvent() {
+        QVariant data;
+        data.setValue(lastMousePos);
+        EventManager::instance()-&gt;triggerEvent("mousePositionUpdate", data);
+    }
+    ```
+*   **Impact on Architecture Diagram:** Potentially adds a filtering/aggregation component within modules or the EventManager.
+#### 3.3. Alternative Communication Mechanisms for High-Frequency Events
+*   **Rationale:** To bypass the Event Manager for critical performance scenarios.
+*   **Implementation:**
+    *   **Direct Connections (with Caution):** Use direct Qt signal/slot connections for specific high-frequency events between particular modules. This should be an exception, carefully justified and documented to avoid tight coupling.
+    *   **Shared Memory:** Explore shared memory for very high-frequency data transfer (e.g., image data to the "Drawing Page"). Requires careful synchronization.
+*   **Impact on Architecture Diagram:** Introduces direct connections between specific modules, deviating from the EventManager-centric communication. This needs to be clearly marked and justified.
+#### 3.4. Profiling and Performance Measurement
+*   **Rationale:** To identify specific bottlenecks and validate optimizations.
+*   **Implementation:**
+    *   Use profiling tools (Qt Creator's profiler, Valgrind).
+    *   Implement performance metrics (event processing time, CPU usage, memory allocation).
+#### 3.5. Event ID Optimization
+*   **Rationale:** To improve event lookup efficiency.
+*   **Implementation:**
+    *   Replace `QString` event names with integer-based event IDs (e.g., using an enum or `QHash&lt;QString, int&gt;`).
+### 4. Trade-offs
+*   **Fine-grained Locking:** Increased concurrency vs. complexity and potential deadlocks.
+*   **Direct Connections:** Reduced latency vs. increased dependencies.
+*   **Event Aggregation:** Reduced event count vs. potential delay.
+*   **Shared Memory:** Improved data transfer vs. synchronization complexity.
+### 5. Conclusion
+Optimizing the Event Manager requires a multi-faceted approach, combining asynchronous event handling, optimized dispatching, and potentially alternative communication mechanisms for high-frequency events. Profiling and performance measurement are crucial for identifying bottlenecks and validating improvements. The trade-offs associated with each strategy should be carefully considered to maintain a robust and maintainable architecture. The visual representation of the modular architecture in the diagram (Image 1) serves as a constant reminder to preserve loose coupling while striving for performance gains.
+```
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+```markdown
+**Investigating Repeated Cached Lambda@Edge Requests in CloudFront**
+The problem you're experiencing, as visually represented in Image 2 with multiple origin requests throughout the day, despite the intended 24-hour caching via the `Expires` header set by Lambda@Edge (Image 1), is a common challenge when combining CDN caching with dynamic header manipulation. Here's a structured approach to investigate and resolve this issue:
+**1. Understanding the Architecture &amp; Problem**
+Your architecture consists of:
+*   **CloudFront:** The CDN responsible for caching and serving content at edge locations.
+*   **Lambda@Edge:** Functions that intercept requests and responses at CloudFront edge locations. You're using it in the "origin response" trigger to modify the `Expires` header.
+*   **S3 Origin:** Your content's source, which CloudFront fetches from when a cache miss occurs.
+The goal is to cache content for a full day (until the end of the day in UTC) to minimize origin requests. However, Image 2 shows that multiple requests are hitting your origin, indicating that CloudFront isn't caching as expected.
+**2. Potential Root Causes and How to Investigate**
+Here's a breakdown of potential causes, along with specific investigation steps:
+*   **2.1. CloudFront's Interpretation of `Expires`:**
+    *   **Problem:** CloudFront might not be fully respecting the `Expires` header set by Lambda@Edge, or there might be a misunderstanding of how CloudFront interprets the header's value. While the `Expires` header is valid, it's generally recommended to use `Cache-Control` header for explicit cache control.
+    *   **Investigation:**
+        1.  **CloudFront Documentation:** Carefully review the CloudFront documentation regarding caching behavior and the use of `Expires` and `Cache-Control` headers. Pay close attention to any notes or caveats about dynamically setting these headers with Lambda@Edge.
+        2.  **Response Header Inspection:** Use `curl -I` or browser developer tools to inspect the response headers returned by CloudFront. Verify that the `Expires` header is present and has the expected value. Pay special attention to the `Cache-Control` header, if present.
+        3.  **Testing with Varying Times:** Test requests at different times of the day to see how CloudFront handles the `Expires` header as the expiration time approaches.
+*   **2.2. Time Zone Issues:**
+    *   **Problem:** Even though you're setting the `Expires` header in UTC, subtle time zone differences or misconfigurations in your Lambda@Edge function or CloudFront settings could affect the evaluation of the expiration time.
+    *   **Investigation:**
+        1.  **Lambda@Edge Code Review:** Double-check your Lambda@Edge code to ensure that all time-related calculations are consistently using UTC. Use explicit UTC time functions (e.g., `datetime.datetime.utcnow()` in Python).
+        2.  **Logging:** Add logging to your Lambda@Edge function to output the current time and the calculated expiration time in UTC. This will help you verify that the time zone conversions are correct.
+        ```python
+        import datetime
+        import pytz  # For explicit timezone handling
+        def lambda_handler(event, context):
+            utc_now = datetime.datetime.now(pytz.utc)
+            end_of_day = utc_now.replace(hour=23, minute=59, second=59, microsecond=999999)
+            expires_time = end_of_day.strftime('%a, %d %b %Y %H:%M:%S GMT')
+            print(f"Current UTC time: {utc_now}")  # Log current time
+            print(f"Expires header value: {expires_time}")  # Log expires header
+            response = event['Records'][0]['cf']['response']
+            response['headers']['expires'] = [{'key': 'Expires', 'value': expires_time}]
+            return response
+        ```
+*   **2.3. Lambda@Edge Function Errors:**
+    *   **Problem:** Intermittent errors within your Lambda@Edge function could lead to incorrect or missing `Expires` headers, causing CloudFront to not cache the response.
+    *   **Investigation:**
+        1.  **CloudWatch Logs:** Thoroughly review the CloudWatch logs for your Lambda@Edge function. Look for any errors, exceptions, or unexpected behavior.
+        2.  **Error Handling:** Implement robust error handling in your Lambda@Edge function to catch any potential exceptions and log them to CloudWatch.
+        3.  **Testing with Errors:** Simulate error conditions in your Lambda@Edge function to see how CloudFront handles them.
+*   **2.4. Cache Key Inconsistencies:**
+    *   **Problem:** Even with your legacy settings to prevent cookies, query strings, and specific headers from being included in the cache key, there might be subtle variations in request headers that are unintentionally affecting the cache key. *This is a very common cause.*
+    *   **Investigation:**
+        1.  **CloudFront Access Logs:** Enable CloudFront access logs and analyze them for any differences in request headers for the same resource. Pay close attention to headers that you *think* are being excluded from the cache key. The access logs will show you the exact headers that CloudFront is receiving.
+        2.  **Custom Cache Policy:** Consider using CloudFront's cache policy to explicitly define the components of the request that should be included in the cache key. This gives you more control over the caching behavior. However, be cautious when defining custom cache keys. Ensure that you are including only the necessary components, as including too many can reduce the cache hit ratio.
+        3.  **Browser Behavior:** Different browsers (or even different versions of the same browser) might send slightly different headers. Test with multiple browsers to rule out browser-specific caching issues.
+*   **2.5. Regional Edge Caching:**
+    *   **Problem:** CloudFront caches content regionally, but it's not guaranteed that subsequent requests will hit the *same* edge location within that region. This means that if requests are routed to different edge locations, they might not share the same cache.
+    *   **Investigation:**
+        1.  **Testing from Different Locations:** Test requests from different geographic locations within the same region to see if the caching behavior varies.
+        2.  **Monitor Cache Hit Ratio:** Monitor the CloudFront `CacheHitRate` metric in CloudWatch. A low cache hit rate can indicate that requests are being routed to different edge locations.
+*   **2.6. Cache Invalidation:**
+    *   **Problem:** Although manual cache invalidation isn't intended, another process or configuration might be inadvertently triggering cache invalidations.
+    *   **Investigation:**
+        1.  **CloudFront Invalidation History:** Review your CloudFront invalidation history to see if any invalidations have occurred recently.
+        2.  **IAM Permissions:** Check the IAM permissions of any users or services that have access to your CloudFront distribution to ensure that they don't have the ability to invalidate the cache unintentionally.
+**3. Recommended Solutions and Configuration Changes**
+*   **3.1. Use `Cache-Control` with `max-age`:**
+    *   **Rationale:** Instead of relying solely on `Expires`, use the `Cache-Control` header with the `max-age` directive. `max-age` specifies the maximum time a resource can be cached (in seconds), providing more explicit control.
+    *   **Implementation:** Modify your Lambda@Edge function to set both `Cache-Control` and `Expires` headers.
+        ```python
+        import datetime
+        import pytz
+        def lambda_handler(event, context):
+            utc_now = datetime.datetime.now(pytz.utc)
+            end_of_day = utc_now.replace(hour=23, minute=59, second=59, microsecond=999999)
+            expires_time = end_of_day.strftime('%a, %d %b %Y %H:%M:%S GMT')
+            max_age = int((end_of_day - utc_now).total_seconds()) # Calculate seconds to end of day
+            response = event['Records'][0]['cf']['response']
+            response['headers']['expires'] = [{'key': 'Expires', 'value': expires_time}]
+            response['headers']['cache-control'] = [{'key': 'Cache-Control', 'value': f'max-age={max_age}'}] # Set Cache-Control
+            print(f"Cache-Control header value: max-age={max_age}") #Log Cache-Control value
+            return response
+        ```
+*   **3.2. Comprehensive Logging:**
+    *   **Rationale:** Detailed logging is essential for debugging caching issues.
+    *   **Implementation:** Add logging to your Lambda@Edge function to capture:
+        *   The incoming request headers.
+        *   The calculated `Expires` and `Cache-Control` header values.
+        *   Any errors or exceptions.
+    *   Enable CloudFront access logs to capture detailed information about each request.
+*   **3.3. Monitor CloudFront Metrics:**
+    *   **Rationale:** Proactive monitoring can help you identify caching problems early.
+    *   **Implementation:** Monitor the following CloudFront metrics in CloudWatch:
+        *   `CacheHitRate`
+        *   `OriginLatency`
+        *   `Requests`
+    *   Set up alarms to notify you of any unexpected changes in these metrics.
+*   **3.4. Thoroughly Validate Cache Key:**
+    *   **Rationale:** Ensure that the cache key being used by CloudFront is consistent for the same resource, regardless of minor variations in request headers.
+    *   **Implementation:** Use CloudFront's cache policy settings to explicitly define the components of the request that should be included in the cache key.
+**4. Testing and Validation**
+*   **4.1. `curl` and Browser Developer Tools:**
+    *   Use `curl -I` or browser developer tools to inspect the response headers and verify that the `Expires` and `Cache-Control` headers are set correctly.
+    *   Check the `Age` header to see how long the content has been cached.
+*   **4.2. Testing from Different Locations:**
+    *   Test requests from different geographic locations to observe regional caching behavior.
+*   **4.3. Vary Request Headers:**
+    *   Use `curl -H` to add specific headers to the request and test different scenarios.
+**5. Conclusion**
+Troubleshooting caching issues in CloudFront, especially when using Lambda@Edge, requires a systematic approach. By thoroughly investigating the potential root causes, implementing the recommended solutions, and continuously monitoring your CloudFront metrics, you can ensure that your content is being cached as intended and minimize origin requests. Remember to pay close attention to the interplay between the `Expires` and `Cache-Control` headers, the accuracy of your time zone calculations, and the consistency of your cache keys. Good logging is critical!
+```
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+```markdown
+## Performance Testing of Microservices Architecture
+This document outlines a performance testing plan for the microservices architecture depicted in the provided diagram, focusing on identifying bottlenecks, understanding system limits (especially the external system's throughput constraint of X=10 messages/sec), and ensuring stability under peak load and stress. The architecture comprises Services A, B, and C, communicating via REST and Kafka/HornetQ message queues.
+### 1. Introduction
+Performance testing is crucial for ensuring the reliability and scalability of microservices. This plan details how to use k6 and Prometheus to simulate user traffic, collect performance metrics, and analyze system behavior under various load conditions. The external system's throughput limitation necessitates careful optimization and monitoring of upstream services.
+### 2. Performance Test Plan
+The test plan will cover the following aspects:
+*   **Throughput:** Measure the number of requests processed per second by each service (A, B, and C) and the message queues (Kafka and HornetQ). Ensure the external system's throughput limit (10 messages/sec) is not exceeded.
+*   **Latency:** Monitor the time taken for requests to be processed by each service and the message queues. High latency can indicate bottlenecks.
+*   **Resource Utilization:** Track CPU, memory, and network usage for each service to identify resource constraints.
+*   **Error Rates:** Monitor the number of errors encountered by each service and the message queues. High error rates indicate instability.
+*   **Concurrency:** Test the system with different numbers of concurrent users/requests to assess scalability.
+### 3. Testing Strategies
+The following testing strategies will be employed:
+*   **Load Testing:** Gradually increase the load on the system to determine the point at which performance starts to degrade. This helps identify the system's capacity under normal operating conditions.
+*   **Stress Testing:** Push the system beyond its expected limits to identify breaking points and assess its ability to recover gracefully. This helps evaluate the system's robustness.
+*   **Endurance Testing:** Test the system over an extended period (e.g., 24 hours) to identify memory leaks or other long-term performance issues. This ensures the system's stability over time.
+*   **Spike Testing:** Subject the system to sudden spikes in traffic to evaluate its ability to handle unexpected surges. This assesses the system's responsiveness to sudden changes in load.
+### 4. Bottleneck Identification
+*   **External System Throughput:** The external system's limit of 10 messages/sec is a known bottleneck. The goal is to optimize upstream services to efficiently utilize this throughput without exceeding it. Rate limiting (explained below) is critical.
+*   **Message Queue Performance:** Evaluate the performance of Kafka and HornetQ to ensure they aren't introducing significant delays. Monitor queue depths and message processing times.
+*   **Service Resource Utilization:** Analyze CPU, memory, and network utilization for each service to identify resource bottlenecks. Use profiling tools to identify performance hotspots within the code.
+*   **Database Performance:** If services interact with databases, monitor database query performance and optimize queries as needed.
+### 5. Metrics to Monitor (using Prometheus)
+Configure Prometheus to scrape metrics from each service and the message queues. Grafana will be used to visualize the metrics and identify performance trends.
+*   **Request Latency:** p95 and p99 latency for each service (Service A, Service B, Service C).
+*   **Message Queue Depth:** Number of messages waiting in Kafka Topic X and HornetQ.
+*   **CPU and Memory Utilization:** For each service.
+*   **Network I/O:** For each service.
+*   **Error Rates:** HTTP status codes, message queue failures.
+*   **Number of Active Threads/Connections:** For each service.
+*   **Custom Application Metrics:** Metrics related to business logic, such as the time taken to process a shipment.
+Example Prometheus Configuration (for Service A):
+```yaml
+scrape_configs:
+  - job_name: 'service-a'
+    static_configs:
+      - targets: ['service-a:8080'] # Assuming Service A exposes metrics on port 8080
+```
+### 6. Tools and Configuration
+*   **k6:** Use k6 to simulate user traffic and generate load on the system. Configure k6 to send requests to the appropriate endpoints on Service A (e.g., `POST /shipments`, `PATCH /shipments`).
+*   **Prometheus:** Configure Prometheus to scrape metrics from each service and the message queues. Use Grafana to visualize the metrics and identify performance trends.
+*   **Grafana:** Use Grafana to create dashboards that visualize the metrics collected by Prometheus. These dashboards should provide real-time insights into the system's performance.
+Example k6 script:
+```javascript
+import http from 'k6/http';
+import { check } from 'k6';
+export const options = {
+  vus: 10, // Virtual Users
+  duration: '30s',
+};
+export default function () {
+  const payload = JSON.stringify({
+    shipmentId: Math.floor(Math.random() * 1000),
+    status: 'IN_TRANSIT',
+  });
+  const params = {
+    headers: {
+      'Content-Type': 'application/json',
+    },
+  };
+  const res = http.post('http://service-a:8080/shipments', payload, params);
+  check(res, {
+    'status is 200': (r) =&gt; r.status === 200,
+  });
+}
+```
+This k6 script simulates 10 virtual users sending `POST` requests to Service A's `/shipments` endpoint for 30 seconds.  Adjust `vus` and `duration` for different load levels.
+### 7. Rate Limiting
+To prevent exceeding the external system's throughput limit (10 messages/sec), implement rate limiting.
+*   **API Gateway:** If an API gateway is present in front of Service A, implement rate limiting at the gateway level. This is the most effective way to control the overall traffic entering the system.
+*   **Service C:** Implement rate limiting within Service C before it sends messages to HornetQ. This provides a safety net in case the API gateway fails or is misconfigured.
+Example Rate Limiting implementation (pseudocode in Service C):
+```python
+from threading import Lock
+import time
+class RateLimiter:
+    def __init__(self, rate, per):
+        self.rate = rate  # Number of allowed requests
+        self.per = per    # Time window in seconds
+        self.lock = Lock()
+        self.allowance = rate
+        self.last_check = time.monotonic()
+    def is_allowed(self):
+        with self.lock:
+            now = time.monotonic()
+            elapsed_time = now - self.last_check
+            self.last_check = now
+            self.allowance += elapsed_time * (self.rate / self.per)
+            if self.allowance &gt; self.rate:
+                self.allowance = self.rate  # Reset allowance to maximum if needed
+            if self.allowance &lt; 1:
+                return False  # Rate limit exceeded
+            self.allowance -= 1
+            return True     # Request is allowed
+rate_limiter = RateLimiter(rate=10, per=1)  # 10 requests per second
+def process_message(message):
+    if rate_limiter.is_allowed():
+        # Send message to HornetQ
+        send_to_hornetq(message)
+    else:
+        # Handle rate limiting (e.g., queue the message, return an error)
+        print(""Rate limit exceeded"")
+        # Implement retry mechanism or error handling
+```
+### 8. Circuit Breakers
+Implement circuit breakers to prevent cascading failures in case of problems with the external system or any of the services. Circuit breakers monitor the health of downstream services and temporarily block requests if a service is unavailable.
+### 9. Caching
+Implement caching where appropriate to reduce the load on the services and the external system. For example, frequently accessed data from the external system could be cached in Service C.
+### 10. Asynchronous Processing
+Leverage asynchronous processing (Kafka, HornetQ) to decouple services and improve responsiveness. Ensure that the message queues are properly configured and monitored to prevent bottlenecks.
+*   **Kafka Topic X:** Monitor the consumer lag for Service C to ensure it is keeping up with the messages being produced by Service B. If the consumer lag is consistently high, consider increasing the number of partitions for the topic or increasing the number of consumers.
+*   **HornetQ:** Monitor the queue depth for HornetQ to ensure that messages are being processed in a timely manner. If the queue depth is consistently high, consider increasing the number of consumers or optimizing the processing logic in the external system.
+### 11. Monitoring and Alerting
+Set up comprehensive monitoring and alerting to proactively identify and address performance issues. Use Prometheus and Grafana to create dashboards that visualize key performance metrics. Configure alerts to notify the team when metrics exceed predefined thresholds.
+Example Alerting Rule (Prometheus):
+```yaml
+groups:
+- name: example
+  rules:
+  - alert: ServiceALatencyHigh
+    expr: histogram_quantile(0.95, sum(rate(service_a_request_duration_seconds_bucket[5m])) by (le)) &gt; 0.5
+    for: 1m
+    labels:
+      severity: warning
+    annotations:
+      summary: ""Service A latency is high""
+      description: ""95th percentile latency for Service A is above 500ms""
+```
+This Prometheus rule triggers an alert if the 95th percentile latency for Service A exceeds 500ms for more than 1 minute.
+### 12. Diagram References
+Referring to the diagram:
+*   **Service A (POST/PATCH shipments):** The entry point for shipment updates. k6 scripts will primarily target this service.
+*   **Service B (POST/PATCH shipments, PATCH inventory, PATCH tracking):** This service acts as an intermediary, updating inventory and tracking information. Performance here impacts overall system responsiveness.
+*   **Kafka Topic X:** The asynchronous communication channel between Service B and Service C. Monitoring queue depth and consumer lag is crucial.
+*   **Service C:** This service integrates with the external system. Rate limiting is critical here.
+*   **HornetQ:** The message queue between Service C and the external system. Monitor queue depth.
+*   **External System:** The constrained resource. All performance efforts are geared towards efficiently utilizing its capacity.
+*   **Warehouse Systems:** These systems interact with Service B, making inventory and tracking updates. Their load contributes to the overall system load.
+### 13. Conclusion
+By implementing this performance testing plan, including the recommended monitoring, rate limiting, and circuit breaker strategies, the user can effectively identify and address performance bottlenecks in their microservices architecture. This will ensure that the system remains stable and performs optimally under various load conditions, while respecting the throughput limitations of the external system. Continuous monitoring and iterative testing are essential for maintaining optimal performance over time.
+```
+--- END ENHANCED ANALYSIS ---"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The UML class diagram provides a reasonable representation of the system's architecture, particularly in illustrating the composition and dependency relationships between key components. However, several improvements can be made to enhance its clarity and completeness, specifically within the context of Unity's architecture.
+1.  **Multiplicity:** Add multiplicity annotations to the associations to specify the number of instances involved in each relationship. For example, `Controller` *has-a* 1 `Info`, and `Info` *has-a* 1 `InfoSpeed`. This clarifies the cardinality of the relationships, reducing ambiguity and immediately showing the intended structure. If `Controller` could potentially manage multiple `Info` instances (e.g., for different game objects), the diagram should reflect this with a `1..*` multiplicity.
+2.  **InterfaceReference Representation:** Explicitly include `InterfaceReference&lt;IInfoGetter&lt;InfoSpeed&gt;&gt;` in the diagram. This could be shown as a property of `SpeedGUI` with the appropriate type. It highlights the specific mechanism used for interface assignment within the Unity environment, showing that `SpeedGUI` holds a reference to an object that implements `IInfoGetter&lt;InfoSpeed&gt;`. Consider adding a note beside this property explaining how the reference is resolved (e.g., through `GetComponent&lt;T&gt;()`).
+3.  **Observer Pattern Indication:** If the `SpeedGUI` updates reactively based on changes in `InfoSpeed`, consider adding a note or stereotype (e.g., &lt;&lt;Observer&gt;&gt;) to indicate this pattern. This will make the dynamic behavior of the system more apparent. You might even consider adding an explicit "observes" relationship, though this might complicate the diagram. Add a note describing the update mechanism, such as: "SpeedGUI updates its display whenever the value provided by IInfoGetter&lt;InfoSpeed&gt;.TryGet() changes."
+4.  **Data Flow Annotations:** Add annotations or labels to the associations to indicate the data flow. For example, label the association between `Controller` and `Info` as "Updates Speed Data." This clarifies the purpose of each association and improves the diagram's readability. Similarly, the association between `Info` and `InfoSpeed` could be labeled "Provides Current Speed."
+5.  **Consider a Sequence Diagram:** A sequence diagram could complement the class diagram by illustrating the sequence of interactions between components during a UI update. This would clarify how `TryGet()` is called and how the data flows from `InfoSpeed` to `SpeedGUI`. The sequence diagram should illustrate the following steps:
+    *   `Controller` updates `Info` (e.g., `info.SetSpeed(newSpeed)`).
+    *   `Info` updates `InfoSpeed` (e.g., `infoSpeed.Speed = newSpeed`).
+    *   `SpeedGUI` calls `infoGetter.TryGet(out speed)` (where `infoGetter` is the `InterfaceReference&lt;IInfoGetter&lt;InfoSpeed&gt;&gt;`).
+    *   `SpeedGUI` updates its display with the retrieved `speed`.
+6.  **Dependency Direction Clarity:** Ensure that the dependency arrows accurately reflect the direction of the dependencies. For instance, `SpeedGUI` depends on `IInfoGetter&lt;InfoSpeed&gt;`, not the other way around. The `SpeedGUI` relies on the interface to get the speed data.
+7.  **Alternative GUI Update Strategies (Push vs. Pull):** The current design uses a pull-based approach where `SpeedGUI` actively requests data from `InfoSpeed`. Consider a push-based approach using Unity's event system. Here's how you could implement it:
+```csharp
+    // In InfoSpeed:
+    public event Action&lt;float&gt; SpeedChanged;
+    private float speed;
+    public float Speed
+    {
+        get =&gt; speed;
+        set
+        {
+            if (speed != value)
+            {
+                speed = value;
+                SpeedChanged?.Invoke(speed);
+            }
+        }
+    }
+    // In SpeedGUI:
+    void OnEnable()
+    {
+        infoGetter.Target.SpeedChanged += UpdateSpeedDisplay; //Assuming infoGetter.Target is a direct reference to InfoSpeed
+    }
+    void OnDisable()
+    {
+         infoGetter.Target.SpeedChanged -= UpdateSpeedDisplay;
+    }
+    void UpdateSpeedDisplay(float newSpeed)
+    {
+        // Update the GUI with newSpeed
+    }
+```
+In this approach, `InfoSpeed` publishes a `SpeedChanged` event whenever its speed value changes. `SpeedGUI` subscribes to this event and updates its display accordingly. This eliminates the need for `SpeedGUI` to actively poll for updates, potentially improving performance. However, it introduces a tighter coupling between `InfoSpeed` and `SpeedGUI`. Weigh the trade-offs based on your specific needs.
+By incorporating these suggestions, the UML class diagram will more effectively communicate the system's architecture, including its static structure, dynamic behavior, and Unity-specific implementation details. The enhanced diagram will provide a clearer understanding of the relationships between components and how GUI elements are updated, along with considerations for different architectural patterns.
+--- END ENHANCED ANALYSIS ---</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11374,14 +11650,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -11408,7 +11676,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11424,6 +11692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11452,44 +11726,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{6DDC5572-F507-49B0-9385-51FCC07A99F6}"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11767,1089 +12037,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="4"/>
-    <col min="2" max="2" width="9.53125" style="4"/>
-    <col min="3" max="4" width="9.06640625" style="4"/>
-    <col min="5" max="5" width="9.06640625" style="12"/>
-    <col min="6" max="16384" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="30.73046875" customWidth="1"/>
+    <col min="2" max="3" width="9.06640625" style="3"/>
+    <col min="4" max="4" width="9.06640625" style="8"/>
+    <col min="5" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>157</v>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>77773733</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>77773733</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>77875225</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>78610852</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>77816547</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>77887833</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>78538614</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>78654594</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>77836245</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>78203877</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>78205255</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>78283358</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>78291029</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>78408109</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>78409121</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>78650612</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>78666526</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9">
+        <v>78686322</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>78987040</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>79087941</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>77831615</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>79629485</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>79154589</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>77875181</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9">
+        <v>77935907</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>79294358</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>79294895</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>79368438</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>78154473</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>78158097</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>79557085</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>78221567</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>78331986</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>79604507</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>78403928</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>78407179</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9">
+        <v>78461828</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>78471246</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9">
+        <v>78481065</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>79611166</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>78553007</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>78604275</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>78681032</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>78956813</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>78971813</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>79032547</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>79086917</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>79121646</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>78949028</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>79154589</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>77790875</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>77875225</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>78610852</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>77816547</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>77887833</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="C51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>78538614</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>78654594</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>77836245</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>78203877</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>78205255</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>78283358</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>78291029</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>78408109</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>78409121</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>78650612</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
-        <v>78666526</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>78686322</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>78987040</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>79087941</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10">
-        <v>77831615</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>77838510</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>77849742</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>77875181</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>77935907</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>77992496</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4">
-        <v>78024207</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10">
-        <v>78143071</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10">
-        <v>78154473</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10">
-        <v>78158097</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10">
-        <v>78167422</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4">
-        <v>78221567</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10">
-        <v>78331986</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10">
-        <v>78384990</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>78403928</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10">
-        <v>78407179</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10">
-        <v>78461828</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4">
-        <v>78471246</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10">
-        <v>78481065</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10">
-        <v>78547490</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4">
-        <v>78553007</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4">
-        <v>78604275</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="10">
-        <v>78681032</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4">
-        <v>78956813</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4">
-        <v>78971813</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4">
-        <v>79032547</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4">
-        <v>79086917</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="10">
-        <v>79121646</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10">
-        <v>78949028</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="10">
-        <v>79154589</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="10">
-        <v>77790875</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1" xr:uid="{A4ECBE8B-064F-4F6A-844C-057747E54745}"/>
-    <hyperlink ref="A50" r:id="rId2" xr:uid="{87FA679F-2AD3-491F-A7B9-DF489C3C1884}"/>
-    <hyperlink ref="A49" r:id="rId3" xr:uid="{3C000401-3484-4741-BF9C-47A1EB71FD77}"/>
-    <hyperlink ref="A48" r:id="rId4" xr:uid="{E9183F12-8404-4EAC-ADD0-744E57056119}"/>
-    <hyperlink ref="A47" r:id="rId5" xr:uid="{7E92E38D-8CFC-4ABC-BD26-4F99148376BD}"/>
-    <hyperlink ref="A46" r:id="rId6" xr:uid="{2DBBF2EC-3FCB-43CB-B124-32FA421E2E1F}"/>
-    <hyperlink ref="A45" r:id="rId7" xr:uid="{E386DA8C-F099-4911-AC09-29D4CA2D3B94}"/>
-    <hyperlink ref="A44" r:id="rId8" xr:uid="{34AB8FC6-B673-4C95-AA6D-07BBC5226495}"/>
-    <hyperlink ref="A43" r:id="rId9" xr:uid="{6D0C1D64-6A6A-4284-9539-8BFA9EFCCE3D}"/>
-    <hyperlink ref="A42" r:id="rId10" xr:uid="{70724CD3-DAA4-4237-8CBE-E2C5D86ABB3B}"/>
-    <hyperlink ref="A41" r:id="rId11" xr:uid="{3A64E5F2-E315-46C5-A973-203E61EA1AD1}"/>
-    <hyperlink ref="A40" r:id="rId12" xr:uid="{8015DCD0-75C3-48E6-BFED-070D351B0320}"/>
-    <hyperlink ref="A39" r:id="rId13" xr:uid="{CE644ED4-4E40-49AA-8E76-AF6B14E4C5BA}"/>
-    <hyperlink ref="A38" r:id="rId14" xr:uid="{73A85ECD-1A08-46B5-B0B3-E8AA47235DAA}"/>
-    <hyperlink ref="A37" r:id="rId15" xr:uid="{3FED5A4A-7B9D-498F-9F00-C5DFEB63D1AB}"/>
-    <hyperlink ref="A36" r:id="rId16" xr:uid="{30672F55-3BF1-4C1A-9E06-F5CB7A00FC43}"/>
-    <hyperlink ref="A35" r:id="rId17" xr:uid="{C422E817-5F39-41E6-852A-7927B3F8BA55}"/>
-    <hyperlink ref="A34" r:id="rId18" xr:uid="{3CA7B510-C877-42B9-BF61-2848525ECB94}"/>
-    <hyperlink ref="A33" r:id="rId19" xr:uid="{D71FC755-CD37-415B-8F31-125727C628BB}"/>
-    <hyperlink ref="A32" r:id="rId20" xr:uid="{B9E4FA00-78B7-4F49-88D7-A58089AAA2D7}"/>
-    <hyperlink ref="A31" r:id="rId21" xr:uid="{4CFC226F-959A-4B40-A614-885C3657F327}"/>
-    <hyperlink ref="A30" r:id="rId22" xr:uid="{24503640-30AB-427C-95AF-FF634A224225}"/>
-    <hyperlink ref="A29" r:id="rId23" xr:uid="{1BD81E9B-244C-40D2-A623-6BCE1E300BB2}"/>
-    <hyperlink ref="A28" r:id="rId24" xr:uid="{FF2B55D0-F961-4171-BA46-38FCD142FA53}"/>
-    <hyperlink ref="A27" r:id="rId25" xr:uid="{8C87D555-4877-4D00-826D-E5280815CBCA}"/>
-    <hyperlink ref="A26" r:id="rId26" xr:uid="{FAA98B3B-D9FA-4815-8A83-049B9A3D05E0}"/>
-    <hyperlink ref="A25" r:id="rId27" xr:uid="{5D5A3B14-E1A2-4D3D-BCDA-6DE1648DBB3F}"/>
-    <hyperlink ref="A24" r:id="rId28" xr:uid="{400913A4-2BAC-432C-969F-5F7FE7E4C31D}"/>
-    <hyperlink ref="A23" r:id="rId29" xr:uid="{5F5DDC29-C74D-4A90-9500-31F2AD4A014D}"/>
-    <hyperlink ref="A22" r:id="rId30" xr:uid="{7B4EFAD7-9A0C-4BFD-BA09-15395916822D}"/>
-    <hyperlink ref="A21" r:id="rId31" xr:uid="{1C9C7E46-785F-4CBC-A73F-93AD069EFD57}"/>
-    <hyperlink ref="A20" r:id="rId32" xr:uid="{795B4B39-0452-48E4-83F1-0AA9D0FAC92F}"/>
-    <hyperlink ref="A19" r:id="rId33" xr:uid="{3F9A3840-9D66-40AC-832B-94ABD1D323DA}"/>
-    <hyperlink ref="A18" r:id="rId34" xr:uid="{B3A8EA7E-0CA1-4788-8196-EE1D6178F7B6}"/>
-    <hyperlink ref="A17" r:id="rId35" xr:uid="{C7D7C177-B07E-4621-A9CA-26048DF958E6}"/>
-    <hyperlink ref="A16" r:id="rId36" xr:uid="{1F55D545-FB1D-4224-AB15-7A0E8AF7DB0D}"/>
-    <hyperlink ref="A15" r:id="rId37" xr:uid="{60452EDD-E810-452B-BDA3-F3342E45597D}"/>
-    <hyperlink ref="A14" r:id="rId38" xr:uid="{935ED245-60E7-4819-9F37-B2A531FBE546}"/>
-    <hyperlink ref="A13" r:id="rId39" xr:uid="{B37FB893-E638-4198-98AA-CBC02206182E}"/>
-    <hyperlink ref="A12" r:id="rId40" xr:uid="{3B1F35F3-A95B-4BFB-82AD-DFF48E1983FE}"/>
-    <hyperlink ref="A11" r:id="rId41" xr:uid="{0C4C26EA-8930-4F07-A54C-1AA0CDA6C6C7}"/>
-    <hyperlink ref="A10" r:id="rId42" xr:uid="{5453B9E8-D3AA-47F5-91A7-A3C019442EFF}"/>
-    <hyperlink ref="A9" r:id="rId43" xr:uid="{67D2FF87-2774-4732-B329-7C07082F87A0}"/>
-    <hyperlink ref="A8" r:id="rId44" xr:uid="{C5282791-BA1D-41F7-AE84-DAE56251F0FB}"/>
-    <hyperlink ref="A7" r:id="rId45" xr:uid="{508329B2-40D6-41B5-8CAD-E8B83AB4FACC}"/>
-    <hyperlink ref="A6" r:id="rId46" xr:uid="{FF0D2D6E-D7E4-40ED-80F8-CAFF53CDA745}"/>
-    <hyperlink ref="A5" r:id="rId47" xr:uid="{3E1D6791-BD2B-4C46-9972-288796828DFA}"/>
-    <hyperlink ref="A4" r:id="rId48" xr:uid="{F83D6919-B225-43AD-9E50-EC677555F768}"/>
-    <hyperlink ref="A3" r:id="rId49" xr:uid="{026359D5-478A-4896-ABAE-3E94DF9E8A59}"/>
-    <hyperlink ref="A2" r:id="rId50" xr:uid="{91A1E35E-8547-4DF4-8C6F-31020441D909}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12866,426 +12930,426 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
